--- a/Income/LYB_inc.xlsx
+++ b/Income/LYB_inc.xlsx
@@ -67,7 +67,7 @@
   <sheetPr>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:AN32"/>
+  <dimension ref="A1:AO32"/>
   <sheetViews>
     <sheetView windowProtection="0" tabSelected="0" showWhiteSpace="0" showOutlineSymbols="0" showFormulas="0" rightToLeft="0" showZeros="1" showRuler="1" showRowColHeaders="1" showGridLines="1" defaultGridColor="1" zoomScale="100" workbookViewId="0" zoomScaleSheetLayoutView="0" zoomScalePageLayoutView="0" zoomScaleNormal="0"/>
   </sheetViews>
@@ -113,6 +113,7 @@
     <col min="38" max="38" bestFit="1" customWidth="1" width="16.5"/>
     <col min="39" max="39" bestFit="1" customWidth="1" width="16.5"/>
     <col min="40" max="40" bestFit="1" customWidth="1" width="16.5"/>
+    <col min="41" max="41" bestFit="1" customWidth="1" width="16.5"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -122,120 +123,123 @@
         </is>
       </c>
       <c r="B1" s="2">
+        <v>44286.0</v>
+      </c>
+      <c r="C1" s="2">
         <v>44196.0</v>
       </c>
-      <c r="C1" s="2">
+      <c r="D1" s="2">
         <v>44104.0</v>
       </c>
-      <c r="D1" s="2">
+      <c r="E1" s="2">
         <v>44012.0</v>
       </c>
-      <c r="E1" s="2">
+      <c r="F1" s="2">
         <v>43921.0</v>
       </c>
-      <c r="F1" s="2">
+      <c r="G1" s="2">
         <v>43830.0</v>
       </c>
-      <c r="G1" s="2">
+      <c r="H1" s="2">
         <v>43738.0</v>
       </c>
-      <c r="H1" s="2">
+      <c r="I1" s="2">
         <v>43646.0</v>
       </c>
-      <c r="I1" s="2">
+      <c r="J1" s="2">
         <v>43555.0</v>
       </c>
-      <c r="J1" s="2">
+      <c r="K1" s="2">
         <v>43465.0</v>
       </c>
-      <c r="K1" s="2">
+      <c r="L1" s="2">
         <v>43373.0</v>
       </c>
-      <c r="L1" s="2">
+      <c r="M1" s="2">
         <v>43281.0</v>
       </c>
-      <c r="M1" s="2">
+      <c r="N1" s="2">
         <v>43190.0</v>
       </c>
-      <c r="N1" s="2">
+      <c r="O1" s="2">
         <v>43100.0</v>
       </c>
-      <c r="O1" s="2">
+      <c r="P1" s="2">
         <v>43008.0</v>
       </c>
-      <c r="P1" s="2">
+      <c r="Q1" s="2">
         <v>42916.0</v>
       </c>
-      <c r="Q1" s="2">
+      <c r="R1" s="2">
         <v>42825.0</v>
       </c>
-      <c r="R1" s="2">
+      <c r="S1" s="2">
         <v>42735.0</v>
       </c>
-      <c r="S1" s="2">
+      <c r="T1" s="2">
         <v>42643.0</v>
       </c>
-      <c r="T1" s="2">
+      <c r="U1" s="2">
         <v>42551.0</v>
       </c>
-      <c r="U1" s="2">
+      <c r="V1" s="2">
         <v>42460.0</v>
       </c>
-      <c r="V1" s="2">
+      <c r="W1" s="2">
         <v>42369.0</v>
       </c>
-      <c r="W1" s="2">
+      <c r="X1" s="2">
         <v>42277.0</v>
       </c>
-      <c r="X1" s="2">
+      <c r="Y1" s="2">
         <v>42185.0</v>
       </c>
-      <c r="Y1" s="2">
+      <c r="Z1" s="2">
         <v>42094.0</v>
       </c>
-      <c r="Z1" s="2">
+      <c r="AA1" s="2">
         <v>42004.0</v>
       </c>
-      <c r="AA1" s="2">
+      <c r="AB1" s="2">
         <v>41912.0</v>
       </c>
-      <c r="AB1" s="2">
+      <c r="AC1" s="2">
         <v>41820.0</v>
       </c>
-      <c r="AC1" s="2">
+      <c r="AD1" s="2">
         <v>41729.0</v>
       </c>
-      <c r="AD1" s="2">
+      <c r="AE1" s="2">
         <v>41639.0</v>
       </c>
-      <c r="AE1" s="2">
+      <c r="AF1" s="2">
         <v>41547.0</v>
       </c>
-      <c r="AF1" s="2">
+      <c r="AG1" s="2">
         <v>41455.0</v>
       </c>
-      <c r="AG1" s="2">
+      <c r="AH1" s="2">
         <v>41364.0</v>
       </c>
-      <c r="AH1" s="2">
+      <c r="AI1" s="2">
         <v>41274.0</v>
       </c>
-      <c r="AI1" s="2">
+      <c r="AJ1" s="2">
         <v>41182.0</v>
       </c>
-      <c r="AJ1" s="2">
+      <c r="AK1" s="2">
         <v>41090.0</v>
       </c>
-      <c r="AK1" s="2">
+      <c r="AL1" s="2">
         <v>40999.0</v>
       </c>
-      <c r="AL1" s="2">
+      <c r="AM1" s="2">
         <v>40908.0</v>
       </c>
-      <c r="AM1" s="2">
+      <c r="AN1" s="2">
         <v>40816.0</v>
       </c>
-      <c r="AN1" s="2">
+      <c r="AO1" s="2">
         <v>40724.0</v>
       </c>
     </row>
@@ -246,120 +250,123 @@
         </is>
       </c>
       <c r="B2" s="0" t="n">
+        <v>29328000000.0</v>
+      </c>
+      <c r="C2" s="0" t="n">
         <v>27749000000.0</v>
       </c>
-      <c r="C2" s="0" t="n">
+      <c r="D2" s="0" t="n">
         <v>27998000000.0</v>
       </c>
-      <c r="D2" s="0" t="n">
+      <c r="E2" s="0" t="n">
         <v>29943000000.0</v>
       </c>
-      <c r="E2" s="0" t="n">
+      <c r="F2" s="0" t="n">
         <v>33459000000.0</v>
       </c>
-      <c r="F2" s="0" t="n">
+      <c r="G2" s="0" t="n">
         <v>34734000000.0</v>
       </c>
-      <c r="G2" s="0" t="n">
+      <c r="H2" s="0" t="n">
         <v>35424000000.0</v>
       </c>
-      <c r="H2" s="0" t="n">
+      <c r="I2" s="0" t="n">
         <v>36857000000.0</v>
       </c>
-      <c r="I2" s="0" t="n">
+      <c r="J2" s="0" t="n">
         <v>38015000000.0</v>
       </c>
-      <c r="J2" s="0" t="n">
+      <c r="K2" s="0" t="n">
         <v>39004000000.0</v>
       </c>
-      <c r="K2" s="0" t="n">
+      <c r="L2" s="0" t="n">
         <v>39263000000.0</v>
       </c>
-      <c r="L2" s="0" t="n">
+      <c r="M2" s="0" t="n">
         <v>37624000000.0</v>
       </c>
-      <c r="M2" s="0" t="n">
+      <c r="N2" s="0" t="n">
         <v>35821000000.0</v>
       </c>
-      <c r="N2" s="0" t="n">
+      <c r="O2" s="0" t="n">
         <v>34484000000.0</v>
       </c>
-      <c r="O2" s="0" t="n">
+      <c r="P2" s="0" t="n">
         <v>33096000000.0</v>
       </c>
-      <c r="P2" s="0" t="n">
+      <c r="Q2" s="0" t="n">
         <v>31945000000.0</v>
       </c>
-      <c r="Q2" s="0" t="n">
+      <c r="R2" s="0" t="n">
         <v>30870000000.0</v>
       </c>
-      <c r="R2" s="0" t="n">
+      <c r="S2" s="0" t="n">
         <v>29183000000.0</v>
       </c>
-      <c r="S2" s="0" t="n">
+      <c r="T2" s="0" t="n">
         <v>28507000000.0</v>
       </c>
-      <c r="T2" s="0" t="n">
+      <c r="U2" s="0" t="n">
         <v>29476000000.0</v>
       </c>
-      <c r="U2" s="0" t="n">
+      <c r="V2" s="0" t="n">
         <v>31293000000.0</v>
       </c>
-      <c r="V2" s="0" t="n">
+      <c r="W2" s="0" t="n">
         <v>32735000000.0</v>
       </c>
-      <c r="W2" s="0" t="n">
+      <c r="X2" s="0" t="n">
         <v>35954000000.0</v>
       </c>
-      <c r="X2" s="0" t="n">
+      <c r="Y2" s="0" t="n">
         <v>39686000000.0</v>
       </c>
-      <c r="Y2" s="0" t="n">
+      <c r="Z2" s="0" t="n">
         <v>42658000000.0</v>
       </c>
-      <c r="Z2" s="0" t="n">
+      <c r="AA2" s="0" t="n">
         <v>45608000000.0</v>
       </c>
-      <c r="AA2" s="0" t="n">
+      <c r="AB2" s="0" t="n">
         <v>46456000000.0</v>
       </c>
-      <c r="AB2" s="0" t="n">
+      <c r="AC2" s="0" t="n">
         <v>45542000000.0</v>
       </c>
-      <c r="AC2" s="0" t="n">
+      <c r="AD2" s="0" t="n">
         <v>44528000000.0</v>
       </c>
-      <c r="AD2" s="0" t="n">
+      <c r="AE2" s="0" t="n">
         <v>44062000000.0</v>
       </c>
-      <c r="AE2" s="0" t="n">
+      <c r="AF2" s="0" t="n">
         <v>44021000000.0</v>
       </c>
-      <c r="AF2" s="0" t="n">
+      <c r="AG2" s="0" t="n">
         <v>44142000000.0</v>
       </c>
-      <c r="AG2" s="0" t="n">
+      <c r="AH2" s="0" t="n">
         <v>44287000000.0</v>
       </c>
-      <c r="AH2" s="0" t="n">
+      <c r="AI2" s="0" t="n">
         <v>45352000000.0</v>
       </c>
-      <c r="AI2" s="0" t="n">
+      <c r="AJ2" s="0" t="n">
         <v>44364000000.0</v>
       </c>
-      <c r="AJ2" s="0" t="n">
+      <c r="AK2" s="0" t="n">
         <v>45607000000.0</v>
       </c>
-      <c r="AK2" s="0" t="n">
+      <c r="AL2" s="0" t="n">
         <v>47665000000.0</v>
       </c>
-      <c r="AL2" s="0" t="n">
+      <c r="AM2" s="0" t="n">
         <v>48183000000.0</v>
       </c>
-      <c r="AM2" s="0" t="n">
+      <c r="AN2" s="0" t="n">
         <v>46472000000.0</v>
       </c>
-      <c r="AN2" s="0" t="n">
+      <c r="AO2" s="0" t="n">
         <v>44258000000.0</v>
       </c>
     </row>
@@ -370,120 +377,123 @@
         </is>
       </c>
       <c r="B3" s="0" t="n">
+        <v>25287000000.0</v>
+      </c>
+      <c r="C3" s="0" t="n">
         <v>24474000000.0</v>
       </c>
-      <c r="C3" s="0" t="n">
+      <c r="D3" s="0" t="n">
         <v>24799000000.0</v>
       </c>
-      <c r="D3" s="0" t="n">
+      <c r="E3" s="0" t="n">
         <v>26141000000.0</v>
       </c>
-      <c r="E3" s="0" t="n">
+      <c r="F3" s="0" t="n">
         <v>28712000000.0</v>
       </c>
-      <c r="F3" s="0" t="n">
+      <c r="G3" s="0" t="n">
         <v>29293000000.0</v>
       </c>
-      <c r="G3" s="0" t="n">
+      <c r="H3" s="0" t="n">
         <v>29985000000.0</v>
       </c>
-      <c r="H3" s="0" t="n">
+      <c r="I3" s="0" t="n">
         <v>31215000000.0</v>
       </c>
-      <c r="I3" s="0" t="n">
+      <c r="J3" s="0" t="n">
         <v>31963000000.0</v>
       </c>
-      <c r="J3" s="0" t="n">
+      <c r="K3" s="0" t="n">
         <v>32529000000.0</v>
       </c>
-      <c r="K3" s="0" t="n">
+      <c r="L3" s="0" t="n">
         <v>32329000000.0</v>
       </c>
-      <c r="L3" s="0" t="n">
+      <c r="M3" s="0" t="n">
         <v>30769000000.0</v>
       </c>
-      <c r="M3" s="0" t="n">
+      <c r="N3" s="0" t="n">
         <v>29080000000.0</v>
       </c>
-      <c r="N3" s="0" t="n">
+      <c r="O3" s="0" t="n">
         <v>28059000000.0</v>
       </c>
-      <c r="O3" s="0" t="n">
+      <c r="P3" s="0" t="n">
         <v>26951000000.0</v>
       </c>
-      <c r="P3" s="0" t="n">
+      <c r="Q3" s="0" t="n">
         <v>25915000000.0</v>
       </c>
-      <c r="Q3" s="0" t="n">
+      <c r="R3" s="0" t="n">
         <v>25016000000.0</v>
       </c>
-      <c r="R3" s="0" t="n">
+      <c r="S3" s="0" t="n">
         <v>23191000000.0</v>
       </c>
-      <c r="S3" s="0" t="n">
+      <c r="T3" s="0" t="n">
         <v>22563000000.0</v>
       </c>
-      <c r="T3" s="0" t="n">
+      <c r="U3" s="0" t="n">
         <v>23125000000.0</v>
       </c>
-      <c r="U3" s="0" t="n">
+      <c r="V3" s="0" t="n">
         <v>24470000000.0</v>
       </c>
-      <c r="V3" s="0" t="n">
+      <c r="W3" s="0" t="n">
         <v>25683000000.0</v>
       </c>
-      <c r="W3" s="0" t="n">
+      <c r="X3" s="0" t="n">
         <v>28880000000.0</v>
       </c>
-      <c r="X3" s="0" t="n">
+      <c r="Y3" s="0" t="n">
         <v>32533000000.0</v>
       </c>
-      <c r="Y3" s="0" t="n">
+      <c r="Z3" s="0" t="n">
         <v>35741000000.0</v>
       </c>
-      <c r="Z3" s="0" t="n">
+      <c r="AA3" s="0" t="n">
         <v>38939000000.0</v>
       </c>
-      <c r="AA3" s="0" t="n">
+      <c r="AB3" s="0" t="n">
         <v>39551000000.0</v>
       </c>
-      <c r="AB3" s="0" t="n">
+      <c r="AC3" s="0" t="n">
         <v>39123000000.0</v>
       </c>
-      <c r="AC3" s="0" t="n">
+      <c r="AD3" s="0" t="n">
         <v>38364000000.0</v>
       </c>
-      <c r="AD3" s="0" t="n">
+      <c r="AE3" s="0" t="n">
         <v>37940000000.0</v>
       </c>
-      <c r="AE3" s="0" t="n">
+      <c r="AF3" s="0" t="n">
         <v>38171000000.0</v>
       </c>
-      <c r="AF3" s="0" t="n">
+      <c r="AG3" s="0" t="n">
         <v>38151000000.0</v>
       </c>
-      <c r="AG3" s="0" t="n">
+      <c r="AH3" s="0" t="n">
         <v>38216000000.0</v>
       </c>
-      <c r="AH3" s="0" t="n">
+      <c r="AI3" s="0" t="n">
         <v>39595000000.0</v>
       </c>
-      <c r="AI3" s="0" t="n">
+      <c r="AJ3" s="0" t="n">
         <v>39114000000.0</v>
       </c>
-      <c r="AJ3" s="0" t="n">
+      <c r="AK3" s="0" t="n">
         <v>40178000000.0</v>
       </c>
-      <c r="AK3" s="0" t="n">
+      <c r="AL3" s="0" t="n">
         <v>42321000000.0</v>
       </c>
-      <c r="AL3" s="0" t="n">
+      <c r="AM3" s="0" t="n">
         <v>42732000000.0</v>
       </c>
-      <c r="AM3" s="0" t="n">
+      <c r="AN3" s="0" t="n">
         <v>40621000000.0</v>
       </c>
-      <c r="AN3" s="0" t="n">
+      <c r="AO3" s="0" t="n">
         <v>38962000000.0</v>
       </c>
     </row>
@@ -494,120 +504,123 @@
         </is>
       </c>
       <c r="B4" s="0" t="n">
+        <v>4041000000.0</v>
+      </c>
+      <c r="C4" s="0" t="n">
         <v>3275000000.0</v>
       </c>
-      <c r="C4" s="0" t="n">
+      <c r="D4" s="0" t="n">
         <v>3199000000.0</v>
       </c>
-      <c r="D4" s="0" t="n">
+      <c r="E4" s="0" t="n">
         <v>3802000000.0</v>
       </c>
-      <c r="E4" s="0" t="n">
+      <c r="F4" s="0" t="n">
         <v>4747000000.0</v>
       </c>
-      <c r="F4" s="0" t="n">
+      <c r="G4" s="0" t="n">
         <v>5441000000.0</v>
       </c>
-      <c r="G4" s="0" t="n">
+      <c r="H4" s="0" t="n">
         <v>5439000000.0</v>
       </c>
-      <c r="H4" s="0" t="n">
+      <c r="I4" s="0" t="n">
         <v>5642000000.0</v>
       </c>
-      <c r="I4" s="0" t="n">
+      <c r="J4" s="0" t="n">
         <v>6052000000.0</v>
       </c>
-      <c r="J4" s="0" t="n">
+      <c r="K4" s="0" t="n">
         <v>6475000000.0</v>
       </c>
-      <c r="K4" s="0" t="n">
+      <c r="L4" s="0" t="n">
         <v>6934000000.0</v>
       </c>
-      <c r="L4" s="0" t="n">
+      <c r="M4" s="0" t="n">
         <v>6855000000.0</v>
       </c>
-      <c r="M4" s="0" t="n">
+      <c r="N4" s="0" t="n">
         <v>6741000000.0</v>
       </c>
-      <c r="N4" s="0" t="n">
+      <c r="O4" s="0" t="n">
         <v>6425000000.0</v>
       </c>
-      <c r="O4" s="0" t="n">
+      <c r="P4" s="0" t="n">
         <v>6145000000.0</v>
       </c>
-      <c r="P4" s="0" t="n">
+      <c r="Q4" s="0" t="n">
         <v>6030000000.0</v>
       </c>
-      <c r="Q4" s="0" t="n">
+      <c r="R4" s="0" t="n">
         <v>5854000000.0</v>
       </c>
-      <c r="R4" s="0" t="n">
+      <c r="S4" s="0" t="n">
         <v>5992000000.0</v>
       </c>
-      <c r="S4" s="0" t="n">
+      <c r="T4" s="0" t="n">
         <v>5944000000.0</v>
       </c>
-      <c r="T4" s="0" t="n">
+      <c r="U4" s="0" t="n">
         <v>6351000000.0</v>
       </c>
-      <c r="U4" s="0" t="n">
+      <c r="V4" s="0" t="n">
         <v>6823000000.0</v>
       </c>
-      <c r="V4" s="0" t="n">
+      <c r="W4" s="0" t="n">
         <v>7052000000.0</v>
       </c>
-      <c r="W4" s="0" t="n">
+      <c r="X4" s="0" t="n">
         <v>7074000000.0</v>
       </c>
-      <c r="X4" s="0" t="n">
+      <c r="Y4" s="0" t="n">
         <v>7153000000.0</v>
       </c>
-      <c r="Y4" s="0" t="n">
+      <c r="Z4" s="0" t="n">
         <v>6917000000.0</v>
       </c>
-      <c r="Z4" s="0" t="n">
+      <c r="AA4" s="0" t="n">
         <v>6669000000.0</v>
       </c>
-      <c r="AA4" s="0" t="n">
+      <c r="AB4" s="0" t="n">
         <v>6905000000.0</v>
       </c>
-      <c r="AB4" s="0" t="n">
+      <c r="AC4" s="0" t="n">
         <v>6419000000.0</v>
       </c>
-      <c r="AC4" s="0" t="n">
+      <c r="AD4" s="0" t="n">
         <v>6164000000.0</v>
       </c>
-      <c r="AD4" s="0" t="n">
+      <c r="AE4" s="0" t="n">
         <v>6122000000.0</v>
       </c>
-      <c r="AE4" s="0" t="n">
+      <c r="AF4" s="0" t="n">
         <v>5850000000.0</v>
       </c>
-      <c r="AF4" s="0" t="n">
+      <c r="AG4" s="0" t="n">
         <v>5991000000.0</v>
       </c>
-      <c r="AG4" s="0" t="n">
+      <c r="AH4" s="0" t="n">
         <v>6071000000.0</v>
       </c>
-      <c r="AH4" s="0" t="n">
+      <c r="AI4" s="0" t="n">
         <v>5757000000.0</v>
       </c>
-      <c r="AI4" s="0" t="n">
+      <c r="AJ4" s="0" t="n">
         <v>5250000000.0</v>
       </c>
-      <c r="AJ4" s="0" t="n">
+      <c r="AK4" s="0" t="n">
         <v>5429000000.0</v>
       </c>
-      <c r="AK4" s="0" t="n">
+      <c r="AL4" s="0" t="n">
         <v>5344000000.0</v>
       </c>
-      <c r="AL4" s="0" t="n">
+      <c r="AM4" s="0" t="n">
         <v>5451000000.0</v>
       </c>
-      <c r="AM4" s="0" t="n">
+      <c r="AN4" s="0" t="n">
         <v>5851000000.0</v>
       </c>
-      <c r="AN4" s="0" t="n">
+      <c r="AO4" s="0" t="n">
         <v>5296000000.0</v>
       </c>
     </row>
@@ -618,55 +631,55 @@
         </is>
       </c>
       <c r="B5" s="0" t="n">
+        <v>115000000.0</v>
+      </c>
+      <c r="C5" s="0" t="n">
         <v>113000000.0</v>
       </c>
-      <c r="C5" s="0" t="n">
+      <c r="D5" s="0" t="n">
         <v>109000000.0</v>
       </c>
-      <c r="D5" s="0" t="n">
+      <c r="E5" s="0" t="n">
         <v>108000000.0</v>
       </c>
-      <c r="E5" s="0" t="n">
+      <c r="F5" s="0" t="n">
         <v>110000000.0</v>
       </c>
-      <c r="F5" s="0" t="n">
+      <c r="G5" s="0" t="n">
         <v>111000000.0</v>
       </c>
-      <c r="G5" s="0" t="n">
+      <c r="H5" s="0" t="n">
         <v>109000000.0</v>
       </c>
-      <c r="H5" s="0" t="n">
+      <c r="I5" s="0" t="n">
         <v>113000000.0</v>
-      </c>
-      <c r="I5" s="0" t="n">
-        <v>115000000.0</v>
       </c>
       <c r="J5" s="0" t="n">
         <v>115000000.0</v>
       </c>
       <c r="K5" s="0" t="n">
+        <v>115000000.0</v>
+      </c>
+      <c r="L5" s="0" t="n">
         <v>116000000.0</v>
       </c>
-      <c r="L5" s="0" t="n">
+      <c r="M5" s="0" t="n">
         <v>113000000.0</v>
       </c>
-      <c r="M5" s="0" t="n">
+      <c r="N5" s="0" t="n">
         <v>109000000.0</v>
       </c>
-      <c r="N5" s="0" t="n">
+      <c r="O5" s="0" t="n">
         <v>106000000.0</v>
       </c>
-      <c r="O5" s="0" t="n">
+      <c r="P5" s="0" t="n">
         <v>103000000.0</v>
       </c>
-      <c r="P5" s="0" t="n">
+      <c r="Q5" s="0" t="n">
         <v>101000000.0</v>
       </c>
-      <c r="Q5" s="0" t="n">
+      <c r="R5" s="0" t="n">
         <v>100000000.0</v>
-      </c>
-      <c r="R5" s="0" t="n">
-        <v>99000000.0</v>
       </c>
       <c r="S5" s="0" t="n">
         <v>99000000.0</v>
@@ -675,63 +688,66 @@
         <v>99000000.0</v>
       </c>
       <c r="U5" s="0" t="n">
+        <v>99000000.0</v>
+      </c>
+      <c r="V5" s="0" t="n">
         <v>100000000.0</v>
       </c>
-      <c r="V5" s="0" t="n">
+      <c r="W5" s="0" t="n">
         <v>102000000.0</v>
       </c>
-      <c r="W5" s="0" t="n">
+      <c r="X5" s="0" t="n">
         <v>106000000.0</v>
       </c>
-      <c r="X5" s="0" t="n">
+      <c r="Y5" s="0" t="n">
         <v>112000000.0</v>
       </c>
-      <c r="Y5" s="0" t="n">
+      <c r="Z5" s="0" t="n">
         <v>121000000.0</v>
       </c>
-      <c r="Z5" s="0" t="n">
+      <c r="AA5" s="0" t="n">
         <v>127000000.0</v>
       </c>
-      <c r="AA5" s="0" t="n">
+      <c r="AB5" s="0" t="n">
         <v>141000000.0</v>
       </c>
-      <c r="AB5" s="0" t="n">
+      <c r="AC5" s="0" t="n">
         <v>145000000.0</v>
       </c>
-      <c r="AC5" s="0" t="n">
+      <c r="AD5" s="0" t="n">
         <v>146000000.0</v>
       </c>
-      <c r="AD5" s="0" t="n">
+      <c r="AE5" s="0" t="n">
         <v>150000000.0</v>
       </c>
-      <c r="AE5" s="0" t="n">
+      <c r="AF5" s="0" t="n">
         <v>163000000.0</v>
       </c>
-      <c r="AF5" s="0" t="n">
+      <c r="AG5" s="0" t="n">
         <v>167000000.0</v>
       </c>
-      <c r="AG5" s="0" t="n">
+      <c r="AH5" s="0" t="n">
         <v>169000000.0</v>
       </c>
-      <c r="AH5" s="0" t="n">
+      <c r="AI5" s="0" t="n">
         <v>172000000.0</v>
       </c>
-      <c r="AI5" s="0" t="n">
+      <c r="AJ5" s="0" t="n">
         <v>169000000.0</v>
       </c>
-      <c r="AJ5" s="0" t="n">
+      <c r="AK5" s="0" t="n">
         <v>183000000.0</v>
       </c>
-      <c r="AK5" s="0" t="n">
+      <c r="AL5" s="0" t="n">
         <v>202000000.0</v>
       </c>
-      <c r="AL5" s="0" t="n">
+      <c r="AM5" s="0" t="n">
         <v>196000000.0</v>
       </c>
-      <c r="AM5" s="0" t="n">
+      <c r="AN5" s="0" t="n">
         <v>183000000.0</v>
       </c>
-      <c r="AN5" s="0" t="n">
+      <c r="AO5" s="0" t="n">
         <v>165000000.0</v>
       </c>
     </row>
@@ -742,120 +758,123 @@
         </is>
       </c>
       <c r="B6" s="0" t="n">
+        <v>1132000000.0</v>
+      </c>
+      <c r="C6" s="0" t="n">
         <v>1140000000.0</v>
       </c>
-      <c r="C6" s="0" t="n">
+      <c r="D6" s="0" t="n">
         <v>1111000000.0</v>
       </c>
-      <c r="D6" s="0" t="n">
+      <c r="E6" s="0" t="n">
         <v>1155000000.0</v>
       </c>
-      <c r="E6" s="0" t="n">
+      <c r="F6" s="0" t="n">
         <v>1169000000.0</v>
       </c>
-      <c r="F6" s="0" t="n">
+      <c r="G6" s="0" t="n">
         <v>1161000000.0</v>
       </c>
-      <c r="G6" s="0" t="n">
+      <c r="H6" s="0" t="n">
         <v>1218000000.0</v>
       </c>
-      <c r="H6" s="0" t="n">
+      <c r="I6" s="0" t="n">
         <v>1224000000.0</v>
       </c>
-      <c r="I6" s="0" t="n">
+      <c r="J6" s="0" t="n">
         <v>1183000000.0</v>
       </c>
-      <c r="J6" s="0" t="n">
+      <c r="K6" s="0" t="n">
         <v>1129000000.0</v>
       </c>
-      <c r="K6" s="0" t="n">
+      <c r="L6" s="0" t="n">
         <v>1040000000.0</v>
       </c>
-      <c r="L6" s="0" t="n">
+      <c r="M6" s="0" t="n">
         <v>949000000.0</v>
       </c>
-      <c r="M6" s="0" t="n">
+      <c r="N6" s="0" t="n">
         <v>888000000.0</v>
       </c>
-      <c r="N6" s="0" t="n">
+      <c r="O6" s="0" t="n">
         <v>859000000.0</v>
       </c>
-      <c r="O6" s="0" t="n">
+      <c r="P6" s="0" t="n">
         <v>875000000.0</v>
       </c>
-      <c r="P6" s="0" t="n">
+      <c r="Q6" s="0" t="n">
         <v>845000000.0</v>
       </c>
-      <c r="Q6" s="0" t="n">
+      <c r="R6" s="0" t="n">
         <v>844000000.0</v>
       </c>
-      <c r="R6" s="0" t="n">
+      <c r="S6" s="0" t="n">
         <v>833000000.0</v>
       </c>
-      <c r="S6" s="0" t="n">
+      <c r="T6" s="0" t="n">
         <v>781000000.0</v>
       </c>
-      <c r="T6" s="0" t="n">
+      <c r="U6" s="0" t="n">
         <v>787000000.0</v>
       </c>
-      <c r="U6" s="0" t="n">
+      <c r="V6" s="0" t="n">
         <v>816000000.0</v>
       </c>
-      <c r="V6" s="0" t="n">
+      <c r="W6" s="0" t="n">
         <v>828000000.0</v>
       </c>
-      <c r="W6" s="0" t="n">
+      <c r="X6" s="0" t="n">
         <v>821000000.0</v>
       </c>
-      <c r="X6" s="0" t="n">
+      <c r="Y6" s="0" t="n">
         <v>838000000.0</v>
       </c>
-      <c r="Y6" s="0" t="n">
+      <c r="Z6" s="0" t="n">
         <v>825000000.0</v>
       </c>
-      <c r="Z6" s="0" t="n">
+      <c r="AA6" s="0" t="n">
         <v>806000000.0</v>
       </c>
-      <c r="AA6" s="0" t="n">
+      <c r="AB6" s="0" t="n">
         <v>841000000.0</v>
       </c>
-      <c r="AB6" s="0" t="n">
+      <c r="AC6" s="0" t="n">
         <v>850000000.0</v>
       </c>
-      <c r="AC6" s="0" t="n">
+      <c r="AD6" s="0" t="n">
         <v>843000000.0</v>
       </c>
-      <c r="AD6" s="0" t="n">
+      <c r="AE6" s="0" t="n">
         <v>870000000.0</v>
       </c>
-      <c r="AE6" s="0" t="n">
+      <c r="AF6" s="0" t="n">
         <v>890000000.0</v>
       </c>
-      <c r="AF6" s="0" t="n">
+      <c r="AG6" s="0" t="n">
         <v>906000000.0</v>
       </c>
-      <c r="AG6" s="0" t="n">
+      <c r="AH6" s="0" t="n">
         <v>899000000.0</v>
       </c>
-      <c r="AH6" s="0" t="n">
+      <c r="AI6" s="0" t="n">
         <v>909000000.0</v>
-      </c>
-      <c r="AI6" s="0" t="n">
-        <v>895000000.0</v>
       </c>
       <c r="AJ6" s="0" t="n">
         <v>895000000.0</v>
       </c>
       <c r="AK6" s="0" t="n">
+        <v>895000000.0</v>
+      </c>
+      <c r="AL6" s="0" t="n">
         <v>930000000.0</v>
       </c>
-      <c r="AL6" s="0" t="n">
+      <c r="AM6" s="0" t="n">
         <v>918000000.0</v>
       </c>
-      <c r="AM6" s="0" t="n">
+      <c r="AN6" s="0" t="n">
         <v>904000000.0</v>
       </c>
-      <c r="AN6" s="0" t="n">
+      <c r="AO6" s="0" t="n">
         <v>872000000.0</v>
       </c>
     </row>
@@ -866,120 +885,123 @@
         </is>
       </c>
       <c r="B7" s="0" t="n">
+        <v>2343000000.0</v>
+      </c>
+      <c r="C7" s="0" t="n">
         <v>1559000000.0</v>
       </c>
-      <c r="C7" s="0" t="n">
+      <c r="D7" s="0" t="n">
         <v>1464000000.0</v>
       </c>
-      <c r="D7" s="0" t="n">
+      <c r="E7" s="0" t="n">
         <v>2565000000.0</v>
       </c>
-      <c r="E7" s="0" t="n">
+      <c r="F7" s="0" t="n">
         <v>3403000000.0</v>
       </c>
-      <c r="F7" s="0" t="n">
+      <c r="G7" s="0" t="n">
         <v>4116000000.0</v>
       </c>
-      <c r="G7" s="0" t="n">
+      <c r="H7" s="0" t="n">
         <v>4112000000.0</v>
       </c>
-      <c r="H7" s="0" t="n">
+      <c r="I7" s="0" t="n">
         <v>4305000000.0</v>
       </c>
-      <c r="I7" s="0" t="n">
+      <c r="J7" s="0" t="n">
         <v>4754000000.0</v>
       </c>
-      <c r="J7" s="0" t="n">
+      <c r="K7" s="0" t="n">
         <v>5231000000.0</v>
       </c>
-      <c r="K7" s="0" t="n">
+      <c r="L7" s="0" t="n">
         <v>5778000000.0</v>
       </c>
-      <c r="L7" s="0" t="n">
+      <c r="M7" s="0" t="n">
         <v>5793000000.0</v>
       </c>
-      <c r="M7" s="0" t="n">
+      <c r="N7" s="0" t="n">
         <v>5744000000.0</v>
       </c>
-      <c r="N7" s="0" t="n">
+      <c r="O7" s="0" t="n">
         <v>5460000000.0</v>
       </c>
-      <c r="O7" s="0" t="n">
+      <c r="P7" s="0" t="n">
         <v>5167000000.0</v>
       </c>
-      <c r="P7" s="0" t="n">
+      <c r="Q7" s="0" t="n">
         <v>5084000000.0</v>
       </c>
-      <c r="Q7" s="0" t="n">
+      <c r="R7" s="0" t="n">
         <v>4910000000.0</v>
       </c>
-      <c r="R7" s="0" t="n">
+      <c r="S7" s="0" t="n">
         <v>5060000000.0</v>
       </c>
-      <c r="S7" s="0" t="n">
+      <c r="T7" s="0" t="n">
         <v>5064000000.0</v>
       </c>
-      <c r="T7" s="0" t="n">
+      <c r="U7" s="0" t="n">
         <v>5465000000.0</v>
       </c>
-      <c r="U7" s="0" t="n">
+      <c r="V7" s="0" t="n">
         <v>5907000000.0</v>
       </c>
-      <c r="V7" s="0" t="n">
+      <c r="W7" s="0" t="n">
         <v>6122000000.0</v>
       </c>
-      <c r="W7" s="0" t="n">
+      <c r="X7" s="0" t="n">
         <v>6147000000.0</v>
       </c>
-      <c r="X7" s="0" t="n">
+      <c r="Y7" s="0" t="n">
         <v>6203000000.0</v>
       </c>
-      <c r="Y7" s="0" t="n">
+      <c r="Z7" s="0" t="n">
         <v>5971000000.0</v>
       </c>
-      <c r="Z7" s="0" t="n">
+      <c r="AA7" s="0" t="n">
         <v>5736000000.0</v>
       </c>
-      <c r="AA7" s="0" t="n">
+      <c r="AB7" s="0" t="n">
         <v>5923000000.0</v>
       </c>
-      <c r="AB7" s="0" t="n">
+      <c r="AC7" s="0" t="n">
         <v>5424000000.0</v>
       </c>
-      <c r="AC7" s="0" t="n">
+      <c r="AD7" s="0" t="n">
         <v>5175000000.0</v>
       </c>
-      <c r="AD7" s="0" t="n">
+      <c r="AE7" s="0" t="n">
         <v>5102000000.0</v>
       </c>
-      <c r="AE7" s="0" t="n">
+      <c r="AF7" s="0" t="n">
         <v>4797000000.0</v>
       </c>
-      <c r="AF7" s="0" t="n">
+      <c r="AG7" s="0" t="n">
         <v>4918000000.0</v>
       </c>
-      <c r="AG7" s="0" t="n">
+      <c r="AH7" s="0" t="n">
         <v>5003000000.0</v>
       </c>
-      <c r="AH7" s="0" t="n">
+      <c r="AI7" s="0" t="n">
         <v>4676000000.0</v>
       </c>
-      <c r="AI7" s="0" t="n">
+      <c r="AJ7" s="0" t="n">
         <v>4186000000.0</v>
       </c>
-      <c r="AJ7" s="0" t="n">
+      <c r="AK7" s="0" t="n">
         <v>4351000000.0</v>
       </c>
-      <c r="AK7" s="0" t="n">
+      <c r="AL7" s="0" t="n">
         <v>4212000000.0</v>
       </c>
-      <c r="AL7" s="0" t="n">
+      <c r="AM7" s="0" t="n">
         <v>4337000000.0</v>
       </c>
-      <c r="AM7" s="0" t="n">
+      <c r="AN7" s="0" t="n">
         <v>4764000000.0</v>
       </c>
-      <c r="AN7" s="0" t="n">
+      <c r="AO7" s="0" t="n">
         <v>4259000000.0</v>
       </c>
     </row>
@@ -989,17 +1011,17 @@
           <t>Interest Expense (Operating)</t>
         </is>
       </c>
-      <c r="B8" s="0" t="n">
+      <c r="B8" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="C8" s="0" t="n">
         <v>838000000.0</v>
       </c>
-      <c r="C8" s="0" t="n">
+      <c r="D8" s="0" t="n">
         <v>695000000.0</v>
       </c>
-      <c r="D8" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
       <c r="E8" s="0" t="inlineStr">
         <is>
           <t/>
@@ -1176,6 +1198,11 @@
         </is>
       </c>
       <c r="AN8" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AO8" s="0" t="inlineStr">
         <is>
           <t/>
         </is>
@@ -1188,120 +1215,123 @@
         </is>
       </c>
       <c r="B9" s="0" t="n">
+        <v>813000000.0</v>
+      </c>
+      <c r="C9" s="0" t="n">
         <v>614000000.0</v>
       </c>
-      <c r="C9" s="0" t="n">
+      <c r="D9" s="0" t="n">
         <v>568000000.0</v>
       </c>
-      <c r="D9" s="0" t="n">
+      <c r="E9" s="0" t="n">
         <v>-97000000.0</v>
       </c>
-      <c r="E9" s="0" t="n">
+      <c r="F9" s="0" t="n">
         <v>-60000000.0</v>
       </c>
-      <c r="F9" s="0" t="n">
+      <c r="G9" s="0" t="n">
         <v>88000000.0</v>
       </c>
-      <c r="G9" s="0" t="n">
+      <c r="H9" s="0" t="n">
         <v>-16000000.0</v>
       </c>
-      <c r="H9" s="0" t="n">
+      <c r="I9" s="0" t="n">
         <v>33000000.0</v>
       </c>
-      <c r="I9" s="0" t="n">
+      <c r="J9" s="0" t="n">
         <v>43000000.0</v>
       </c>
-      <c r="J9" s="0" t="n">
+      <c r="K9" s="0" t="n">
         <v>80000000.0</v>
       </c>
-      <c r="K9" s="0" t="n">
+      <c r="L9" s="0" t="n">
         <v>79000000.0</v>
       </c>
-      <c r="L9" s="0" t="n">
+      <c r="M9" s="0" t="n">
         <v>155000000.0</v>
       </c>
-      <c r="M9" s="0" t="n">
+      <c r="N9" s="0" t="n">
         <v>163000000.0</v>
       </c>
-      <c r="N9" s="0" t="n">
+      <c r="O9" s="0" t="n">
         <v>33000000.0</v>
       </c>
-      <c r="O9" s="0" t="n">
+      <c r="P9" s="0" t="n">
         <v>36000000.0</v>
       </c>
-      <c r="P9" s="0" t="n">
+      <c r="Q9" s="0" t="n">
         <v>-38000000.0</v>
       </c>
-      <c r="Q9" s="0" t="n">
+      <c r="R9" s="0" t="n">
         <v>-19000000.0</v>
       </c>
-      <c r="R9" s="0" t="n">
+      <c r="S9" s="0" t="n">
         <v>173000000.0</v>
       </c>
-      <c r="S9" s="0" t="n">
+      <c r="T9" s="0" t="n">
         <v>176000000.0</v>
       </c>
-      <c r="T9" s="0" t="n">
+      <c r="U9" s="0" t="n">
         <v>170000000.0</v>
       </c>
-      <c r="U9" s="0" t="n">
+      <c r="V9" s="0" t="n">
         <v>157000000.0</v>
       </c>
-      <c r="V9" s="0" t="n">
+      <c r="W9" s="0" t="n">
         <v>87000000.0</v>
       </c>
-      <c r="W9" s="0" t="n">
+      <c r="X9" s="0" t="n">
         <v>97000000.0</v>
       </c>
-      <c r="X9" s="0" t="n">
+      <c r="Y9" s="0" t="n">
         <v>59000000.0</v>
       </c>
-      <c r="Y9" s="0" t="n">
+      <c r="Z9" s="0" t="n">
         <v>22000000.0</v>
       </c>
-      <c r="Z9" s="0" t="n">
+      <c r="AA9" s="0" t="n">
         <v>-24000000.0</v>
       </c>
-      <c r="AA9" s="0" t="n">
+      <c r="AB9" s="0" t="n">
         <v>-98000000.0</v>
       </c>
-      <c r="AB9" s="0" t="n">
+      <c r="AC9" s="0" t="n">
         <v>-100000000.0</v>
       </c>
-      <c r="AC9" s="0" t="n">
+      <c r="AD9" s="0" t="n">
         <v>-116000000.0</v>
       </c>
-      <c r="AD9" s="0" t="n">
+      <c r="AE9" s="0" t="n">
         <v>-106000000.0</v>
       </c>
-      <c r="AE9" s="0" t="n">
+      <c r="AF9" s="0" t="n">
         <v>-78000000.0</v>
       </c>
-      <c r="AF9" s="0" t="n">
+      <c r="AG9" s="0" t="n">
         <v>-106000000.0</v>
       </c>
-      <c r="AG9" s="0" t="n">
+      <c r="AH9" s="0" t="n">
         <v>-450000000.0</v>
       </c>
-      <c r="AH9" s="0" t="n">
+      <c r="AI9" s="0" t="n">
         <v>-491000000.0</v>
       </c>
-      <c r="AI9" s="0" t="n">
+      <c r="AJ9" s="0" t="n">
         <v>-980000000.0</v>
       </c>
-      <c r="AJ9" s="0" t="n">
+      <c r="AK9" s="0" t="n">
         <v>-1013000000.0</v>
       </c>
-      <c r="AK9" s="0" t="n">
+      <c r="AL9" s="0" t="n">
         <v>-709000000.0</v>
       </c>
-      <c r="AL9" s="0" t="n">
+      <c r="AM9" s="0" t="n">
         <v>-806000000.0</v>
       </c>
-      <c r="AM9" s="0" t="n">
+      <c r="AN9" s="0" t="n">
         <v>-791000000.0</v>
       </c>
-      <c r="AN9" s="0" t="n">
+      <c r="AO9" s="0" t="n">
         <v>-983000000.0</v>
       </c>
     </row>
@@ -1312,120 +1342,123 @@
         </is>
       </c>
       <c r="B10" s="0" t="n">
+        <v>119000000.0</v>
+      </c>
+      <c r="C10" s="0" t="n">
         <v>12000000.0</v>
       </c>
-      <c r="C10" s="0" t="n">
+      <c r="D10" s="0" t="n">
         <v>13000000.0</v>
       </c>
-      <c r="D10" s="0" t="n">
+      <c r="E10" s="0" t="n">
         <v>96000000.0</v>
       </c>
-      <c r="E10" s="0" t="n">
+      <c r="F10" s="0" t="n">
         <v>173000000.0</v>
       </c>
-      <c r="F10" s="0" t="n">
+      <c r="G10" s="0" t="n">
         <v>262000000.0</v>
       </c>
-      <c r="G10" s="0" t="n">
+      <c r="H10" s="0" t="n">
         <v>347000000.0</v>
       </c>
-      <c r="H10" s="0" t="n">
+      <c r="I10" s="0" t="n">
         <v>351000000.0</v>
       </c>
-      <c r="I10" s="0" t="n">
+      <c r="J10" s="0" t="n">
         <v>361000000.0</v>
       </c>
-      <c r="J10" s="0" t="n">
+      <c r="K10" s="0" t="n">
         <v>360000000.0</v>
       </c>
-      <c r="K10" s="0" t="n">
+      <c r="L10" s="0" t="n">
         <v>367000000.0</v>
       </c>
-      <c r="L10" s="0" t="n">
+      <c r="M10" s="0" t="n">
         <v>371000000.0</v>
       </c>
-      <c r="M10" s="0" t="n">
+      <c r="N10" s="0" t="n">
         <v>375000000.0</v>
       </c>
-      <c r="N10" s="0" t="n">
+      <c r="O10" s="0" t="n">
         <v>491000000.0</v>
       </c>
-      <c r="O10" s="0" t="n">
+      <c r="P10" s="0" t="n">
         <v>481000000.0</v>
       </c>
-      <c r="P10" s="0" t="n">
+      <c r="Q10" s="0" t="n">
         <v>459000000.0</v>
       </c>
-      <c r="Q10" s="0" t="n">
+      <c r="R10" s="0" t="n">
         <v>447000000.0</v>
       </c>
-      <c r="R10" s="0" t="n">
+      <c r="S10" s="0" t="n">
         <v>322000000.0</v>
       </c>
-      <c r="S10" s="0" t="n">
+      <c r="T10" s="0" t="n">
         <v>314000000.0</v>
       </c>
-      <c r="T10" s="0" t="n">
+      <c r="U10" s="0" t="n">
         <v>327000000.0</v>
       </c>
-      <c r="U10" s="0" t="n">
+      <c r="V10" s="0" t="n">
         <v>323000000.0</v>
       </c>
-      <c r="V10" s="0" t="n">
+      <c r="W10" s="0" t="n">
         <v>310000000.0</v>
       </c>
-      <c r="W10" s="0" t="n">
+      <c r="X10" s="0" t="n">
         <v>305000000.0</v>
       </c>
-      <c r="X10" s="0" t="n">
+      <c r="Y10" s="0" t="n">
         <v>312000000.0</v>
       </c>
-      <c r="Y10" s="0" t="n">
+      <c r="Z10" s="0" t="n">
         <v>329000000.0</v>
       </c>
-      <c r="Z10" s="0" t="n">
+      <c r="AA10" s="0" t="n">
         <v>352000000.0</v>
       </c>
-      <c r="AA10" s="0" t="n">
+      <c r="AB10" s="0" t="n">
         <v>367000000.0</v>
       </c>
-      <c r="AB10" s="0" t="n">
+      <c r="AC10" s="0" t="n">
         <v>356000000.0</v>
       </c>
-      <c r="AC10" s="0" t="n">
+      <c r="AD10" s="0" t="n">
         <v>330000000.0</v>
       </c>
-      <c r="AD10" s="0" t="n">
+      <c r="AE10" s="0" t="n">
         <v>309000000.0</v>
       </c>
-      <c r="AE10" s="0" t="n">
+      <c r="AF10" s="0" t="n">
         <v>296000000.0</v>
       </c>
-      <c r="AF10" s="0" t="n">
+      <c r="AG10" s="0" t="n">
         <v>286000000.0</v>
       </c>
-      <c r="AG10" s="0" t="n">
+      <c r="AH10" s="0" t="n">
         <v>627000000.0</v>
       </c>
-      <c r="AH10" s="0" t="n">
+      <c r="AI10" s="0" t="n">
         <v>655000000.0</v>
       </c>
-      <c r="AI10" s="0" t="n">
+      <c r="AJ10" s="0" t="n">
         <v>1130000000.0</v>
       </c>
-      <c r="AJ10" s="0" t="n">
+      <c r="AK10" s="0" t="n">
         <v>1215000000.0</v>
       </c>
-      <c r="AK10" s="0" t="n">
+      <c r="AL10" s="0" t="n">
         <v>980000000.0</v>
       </c>
-      <c r="AL10" s="0" t="n">
+      <c r="AM10" s="0" t="n">
         <v>1044000000.0</v>
       </c>
-      <c r="AM10" s="0" t="n">
+      <c r="AN10" s="0" t="n">
         <v>718000000.0</v>
       </c>
-      <c r="AN10" s="0" t="n">
+      <c r="AO10" s="0" t="n">
         <v>744000000.0</v>
       </c>
     </row>
@@ -1436,120 +1469,123 @@
         </is>
       </c>
       <c r="B11" s="0" t="n">
+        <v>2310000000.0</v>
+      </c>
+      <c r="C11" s="0" t="n">
         <v>1386000000.0</v>
       </c>
-      <c r="C11" s="0" t="n">
+      <c r="D11" s="0" t="n">
         <v>1242000000.0</v>
       </c>
-      <c r="D11" s="0" t="n">
+      <c r="E11" s="0" t="n">
         <v>2358000000.0</v>
       </c>
-      <c r="E11" s="0" t="n">
+      <c r="F11" s="0" t="n">
         <v>3250000000.0</v>
       </c>
-      <c r="F11" s="0" t="n">
+      <c r="G11" s="0" t="n">
         <v>4052000000.0</v>
       </c>
-      <c r="G11" s="0" t="n">
+      <c r="H11" s="0" t="n">
         <v>4096000000.0</v>
       </c>
-      <c r="H11" s="0" t="n">
+      <c r="I11" s="0" t="n">
         <v>4338000000.0</v>
       </c>
-      <c r="I11" s="0" t="n">
+      <c r="J11" s="0" t="n">
         <v>4797000000.0</v>
       </c>
-      <c r="J11" s="0" t="n">
+      <c r="K11" s="0" t="n">
         <v>5311000000.0</v>
       </c>
-      <c r="K11" s="0" t="n">
+      <c r="L11" s="0" t="n">
         <v>5857000000.0</v>
       </c>
-      <c r="L11" s="0" t="n">
+      <c r="M11" s="0" t="n">
         <v>5948000000.0</v>
       </c>
-      <c r="M11" s="0" t="n">
+      <c r="N11" s="0" t="n">
         <v>5907000000.0</v>
       </c>
-      <c r="N11" s="0" t="n">
+      <c r="O11" s="0" t="n">
         <v>5493000000.0</v>
       </c>
-      <c r="O11" s="0" t="n">
+      <c r="P11" s="0" t="n">
         <v>5203000000.0</v>
       </c>
-      <c r="P11" s="0" t="n">
+      <c r="Q11" s="0" t="n">
         <v>5046000000.0</v>
       </c>
-      <c r="Q11" s="0" t="n">
+      <c r="R11" s="0" t="n">
         <v>4891000000.0</v>
       </c>
-      <c r="R11" s="0" t="n">
+      <c r="S11" s="0" t="n">
         <v>5233000000.0</v>
       </c>
-      <c r="S11" s="0" t="n">
+      <c r="T11" s="0" t="n">
         <v>5240000000.0</v>
       </c>
-      <c r="T11" s="0" t="n">
+      <c r="U11" s="0" t="n">
         <v>5635000000.0</v>
       </c>
-      <c r="U11" s="0" t="n">
+      <c r="V11" s="0" t="n">
         <v>6064000000.0</v>
       </c>
-      <c r="V11" s="0" t="n">
+      <c r="W11" s="0" t="n">
         <v>6209000000.0</v>
       </c>
-      <c r="W11" s="0" t="n">
+      <c r="X11" s="0" t="n">
         <v>6244000000.0</v>
       </c>
-      <c r="X11" s="0" t="n">
+      <c r="Y11" s="0" t="n">
         <v>6262000000.0</v>
       </c>
-      <c r="Y11" s="0" t="n">
+      <c r="Z11" s="0" t="n">
         <v>5993000000.0</v>
       </c>
-      <c r="Z11" s="0" t="n">
+      <c r="AA11" s="0" t="n">
         <v>5712000000.0</v>
       </c>
-      <c r="AA11" s="0" t="n">
+      <c r="AB11" s="0" t="n">
         <v>5825000000.0</v>
       </c>
-      <c r="AB11" s="0" t="n">
+      <c r="AC11" s="0" t="n">
         <v>5324000000.0</v>
       </c>
-      <c r="AC11" s="0" t="n">
+      <c r="AD11" s="0" t="n">
         <v>5059000000.0</v>
       </c>
-      <c r="AD11" s="0" t="n">
+      <c r="AE11" s="0" t="n">
         <v>4996000000.0</v>
       </c>
-      <c r="AE11" s="0" t="n">
+      <c r="AF11" s="0" t="n">
         <v>4719000000.0</v>
       </c>
-      <c r="AF11" s="0" t="n">
+      <c r="AG11" s="0" t="n">
         <v>4812000000.0</v>
       </c>
-      <c r="AG11" s="0" t="n">
+      <c r="AH11" s="0" t="n">
         <v>4553000000.0</v>
       </c>
-      <c r="AH11" s="0" t="n">
+      <c r="AI11" s="0" t="n">
         <v>4185000000.0</v>
       </c>
-      <c r="AI11" s="0" t="n">
+      <c r="AJ11" s="0" t="n">
         <v>3206000000.0</v>
       </c>
-      <c r="AJ11" s="0" t="n">
+      <c r="AK11" s="0" t="n">
         <v>3338000000.0</v>
       </c>
-      <c r="AK11" s="0" t="n">
+      <c r="AL11" s="0" t="n">
         <v>3503000000.0</v>
       </c>
-      <c r="AL11" s="0" t="n">
+      <c r="AM11" s="0" t="n">
         <v>3531000000.0</v>
       </c>
-      <c r="AM11" s="0" t="n">
+      <c r="AN11" s="0" t="n">
         <v>3973000000.0</v>
       </c>
-      <c r="AN11" s="0" t="n">
+      <c r="AO11" s="0" t="n">
         <v>3276000000.0</v>
       </c>
     </row>
@@ -1560,120 +1596,123 @@
         </is>
       </c>
       <c r="B12" s="0" t="n">
+        <v>-48000000.0</v>
+      </c>
+      <c r="C12" s="0" t="n">
         <v>-43000000.0</v>
       </c>
-      <c r="C12" s="0" t="n">
+      <c r="D12" s="0" t="n">
         <v>58000000.0</v>
       </c>
-      <c r="D12" s="0" t="n">
+      <c r="E12" s="0" t="n">
         <v>319000000.0</v>
       </c>
-      <c r="E12" s="0" t="n">
+      <c r="F12" s="0" t="n">
         <v>520000000.0</v>
       </c>
-      <c r="F12" s="0" t="n">
+      <c r="G12" s="0" t="n">
         <v>648000000.0</v>
       </c>
-      <c r="G12" s="0" t="n">
+      <c r="H12" s="0" t="n">
         <v>607000000.0</v>
       </c>
-      <c r="H12" s="0" t="n">
+      <c r="I12" s="0" t="n">
         <v>703000000.0</v>
       </c>
-      <c r="I12" s="0" t="n">
+      <c r="J12" s="0" t="n">
         <v>513000000.0</v>
       </c>
-      <c r="J12" s="0" t="n">
+      <c r="K12" s="0" t="n">
         <v>613000000.0</v>
       </c>
-      <c r="K12" s="0" t="n">
+      <c r="L12" s="0" t="n">
         <v>-42000000.0</v>
       </c>
-      <c r="L12" s="0" t="n">
+      <c r="M12" s="0" t="n">
         <v>106000000.0</v>
       </c>
-      <c r="M12" s="0" t="n">
+      <c r="N12" s="0" t="n">
         <v>586000000.0</v>
       </c>
-      <c r="N12" s="0" t="n">
+      <c r="O12" s="0" t="n">
         <v>598000000.0</v>
       </c>
-      <c r="O12" s="0" t="n">
+      <c r="P12" s="0" t="n">
         <v>1436000000.0</v>
       </c>
-      <c r="P12" s="0" t="n">
+      <c r="Q12" s="0" t="n">
         <v>1382000000.0</v>
       </c>
-      <c r="Q12" s="0" t="n">
+      <c r="R12" s="0" t="n">
         <v>1269000000.0</v>
       </c>
-      <c r="R12" s="0" t="n">
+      <c r="S12" s="0" t="n">
         <v>1386000000.0</v>
       </c>
-      <c r="S12" s="0" t="n">
+      <c r="T12" s="0" t="n">
         <v>1366000000.0</v>
       </c>
-      <c r="T12" s="0" t="n">
+      <c r="U12" s="0" t="n">
         <v>1527000000.0</v>
       </c>
-      <c r="U12" s="0" t="n">
+      <c r="V12" s="0" t="n">
         <v>1722000000.0</v>
       </c>
-      <c r="V12" s="0" t="n">
+      <c r="W12" s="0" t="n">
         <v>1730000000.0</v>
       </c>
-      <c r="W12" s="0" t="n">
+      <c r="X12" s="0" t="n">
         <v>1766000000.0</v>
       </c>
-      <c r="X12" s="0" t="n">
+      <c r="Y12" s="0" t="n">
         <v>1713000000.0</v>
       </c>
-      <c r="Y12" s="0" t="n">
+      <c r="Z12" s="0" t="n">
         <v>1597000000.0</v>
       </c>
-      <c r="Z12" s="0" t="n">
+      <c r="AA12" s="0" t="n">
         <v>1540000000.0</v>
       </c>
-      <c r="AA12" s="0" t="n">
+      <c r="AB12" s="0" t="n">
         <v>1272000000.0</v>
       </c>
-      <c r="AB12" s="0" t="n">
+      <c r="AC12" s="0" t="n">
         <v>1177000000.0</v>
       </c>
-      <c r="AC12" s="0" t="n">
+      <c r="AD12" s="0" t="n">
         <v>1162000000.0</v>
       </c>
-      <c r="AD12" s="0" t="n">
+      <c r="AE12" s="0" t="n">
         <v>1136000000.0</v>
       </c>
-      <c r="AE12" s="0" t="n">
+      <c r="AF12" s="0" t="n">
         <v>1391000000.0</v>
       </c>
-      <c r="AF12" s="0" t="n">
+      <c r="AG12" s="0" t="n">
         <v>1487000000.0</v>
       </c>
-      <c r="AG12" s="0" t="n">
+      <c r="AH12" s="0" t="n">
         <v>1383000000.0</v>
       </c>
-      <c r="AH12" s="0" t="n">
+      <c r="AI12" s="0" t="n">
         <v>1327000000.0</v>
       </c>
-      <c r="AI12" s="0" t="n">
+      <c r="AJ12" s="0" t="n">
         <v>944000000.0</v>
       </c>
-      <c r="AJ12" s="0" t="n">
+      <c r="AK12" s="0" t="n">
         <v>1015000000.0</v>
       </c>
-      <c r="AK12" s="0" t="n">
+      <c r="AL12" s="0" t="n">
         <v>1097000000.0</v>
       </c>
-      <c r="AL12" s="0" t="n">
+      <c r="AM12" s="0" t="n">
         <v>1059000000.0</v>
       </c>
-      <c r="AM12" s="0" t="n">
+      <c r="AN12" s="0" t="n">
         <v>1045000000.0</v>
       </c>
-      <c r="AN12" s="0" t="n">
+      <c r="AO12" s="0" t="n">
         <v>793000000.0</v>
       </c>
     </row>
@@ -1684,120 +1723,123 @@
         </is>
       </c>
       <c r="B13" s="0" t="n">
+        <v>2358000000.0</v>
+      </c>
+      <c r="C13" s="0" t="n">
         <v>1429000000.0</v>
       </c>
-      <c r="C13" s="0" t="n">
+      <c r="D13" s="0" t="n">
         <v>1184000000.0</v>
       </c>
-      <c r="D13" s="0" t="n">
+      <c r="E13" s="0" t="n">
         <v>2039000000.0</v>
       </c>
-      <c r="E13" s="0" t="n">
+      <c r="F13" s="0" t="n">
         <v>2730000000.0</v>
       </c>
-      <c r="F13" s="0" t="n">
+      <c r="G13" s="0" t="n">
         <v>3404000000.0</v>
       </c>
-      <c r="G13" s="0" t="n">
+      <c r="H13" s="0" t="n">
         <v>3489000000.0</v>
       </c>
-      <c r="H13" s="0" t="n">
+      <c r="I13" s="0" t="n">
         <v>3635000000.0</v>
       </c>
-      <c r="I13" s="0" t="n">
+      <c r="J13" s="0" t="n">
         <v>4284000000.0</v>
       </c>
-      <c r="J13" s="0" t="n">
+      <c r="K13" s="0" t="n">
         <v>4698000000.0</v>
       </c>
-      <c r="K13" s="0" t="n">
+      <c r="L13" s="0" t="n">
         <v>5899000000.0</v>
       </c>
-      <c r="L13" s="0" t="n">
+      <c r="M13" s="0" t="n">
         <v>5842000000.0</v>
       </c>
-      <c r="M13" s="0" t="n">
+      <c r="N13" s="0" t="n">
         <v>5321000000.0</v>
       </c>
-      <c r="N13" s="0" t="n">
+      <c r="O13" s="0" t="n">
         <v>4895000000.0</v>
       </c>
-      <c r="O13" s="0" t="n">
+      <c r="P13" s="0" t="n">
         <v>3767000000.0</v>
       </c>
-      <c r="P13" s="0" t="n">
+      <c r="Q13" s="0" t="n">
         <v>3664000000.0</v>
       </c>
-      <c r="Q13" s="0" t="n">
+      <c r="R13" s="0" t="n">
         <v>3622000000.0</v>
       </c>
-      <c r="R13" s="0" t="n">
+      <c r="S13" s="0" t="n">
         <v>3847000000.0</v>
       </c>
-      <c r="S13" s="0" t="n">
+      <c r="T13" s="0" t="n">
         <v>3874000000.0</v>
       </c>
-      <c r="T13" s="0" t="n">
+      <c r="U13" s="0" t="n">
         <v>4108000000.0</v>
       </c>
-      <c r="U13" s="0" t="n">
+      <c r="V13" s="0" t="n">
         <v>4342000000.0</v>
       </c>
-      <c r="V13" s="0" t="n">
+      <c r="W13" s="0" t="n">
         <v>4479000000.0</v>
       </c>
-      <c r="W13" s="0" t="n">
+      <c r="X13" s="0" t="n">
         <v>4478000000.0</v>
       </c>
-      <c r="X13" s="0" t="n">
+      <c r="Y13" s="0" t="n">
         <v>4549000000.0</v>
       </c>
-      <c r="Y13" s="0" t="n">
+      <c r="Z13" s="0" t="n">
         <v>4396000000.0</v>
       </c>
-      <c r="Z13" s="0" t="n">
+      <c r="AA13" s="0" t="n">
         <v>4172000000.0</v>
       </c>
-      <c r="AA13" s="0" t="n">
+      <c r="AB13" s="0" t="n">
         <v>4553000000.0</v>
       </c>
-      <c r="AB13" s="0" t="n">
+      <c r="AC13" s="0" t="n">
         <v>4147000000.0</v>
       </c>
-      <c r="AC13" s="0" t="n">
+      <c r="AD13" s="0" t="n">
         <v>3897000000.0</v>
       </c>
-      <c r="AD13" s="0" t="n">
+      <c r="AE13" s="0" t="n">
         <v>3860000000.0</v>
       </c>
-      <c r="AE13" s="0" t="n">
+      <c r="AF13" s="0" t="n">
         <v>3328000000.0</v>
       </c>
-      <c r="AF13" s="0" t="n">
+      <c r="AG13" s="0" t="n">
         <v>3325000000.0</v>
       </c>
-      <c r="AG13" s="0" t="n">
+      <c r="AH13" s="0" t="n">
         <v>3170000000.0</v>
       </c>
-      <c r="AH13" s="0" t="n">
+      <c r="AI13" s="0" t="n">
         <v>2858000000.0</v>
       </c>
-      <c r="AI13" s="0" t="n">
+      <c r="AJ13" s="0" t="n">
         <v>2262000000.0</v>
       </c>
-      <c r="AJ13" s="0" t="n">
+      <c r="AK13" s="0" t="n">
         <v>2323000000.0</v>
       </c>
-      <c r="AK13" s="0" t="n">
+      <c r="AL13" s="0" t="n">
         <v>2406000000.0</v>
       </c>
-      <c r="AL13" s="0" t="n">
+      <c r="AM13" s="0" t="n">
         <v>2472000000.0</v>
       </c>
-      <c r="AM13" s="0" t="n">
+      <c r="AN13" s="0" t="n">
         <v>2928000000.0</v>
       </c>
-      <c r="AN13" s="0" t="n">
+      <c r="AO13" s="0" t="n">
         <v>2483000000.0</v>
       </c>
     </row>
@@ -1808,120 +1850,123 @@
         </is>
       </c>
       <c r="B14" s="0" t="n">
+        <v>2343000000.0</v>
+      </c>
+      <c r="C14" s="0" t="n">
         <v>1417000000.0</v>
       </c>
-      <c r="C14" s="0" t="n">
+      <c r="D14" s="0" t="n">
         <v>1174000000.0</v>
       </c>
-      <c r="D14" s="0" t="n">
+      <c r="E14" s="0" t="n">
         <v>2026000000.0</v>
       </c>
-      <c r="E14" s="0" t="n">
+      <c r="F14" s="0" t="n">
         <v>2716000000.0</v>
       </c>
-      <c r="F14" s="0" t="n">
+      <c r="G14" s="0" t="n">
         <v>3389000000.0</v>
       </c>
-      <c r="G14" s="0" t="n">
+      <c r="H14" s="0" t="n">
         <v>3470000000.0</v>
       </c>
-      <c r="H14" s="0" t="n">
+      <c r="I14" s="0" t="n">
         <v>3620000000.0</v>
       </c>
-      <c r="I14" s="0" t="n">
+      <c r="J14" s="0" t="n">
         <v>4272000000.0</v>
       </c>
-      <c r="J14" s="0" t="n">
+      <c r="K14" s="0" t="n">
         <v>4688000000.0</v>
       </c>
-      <c r="K14" s="0" t="n">
+      <c r="L14" s="0" t="n">
         <v>5892000000.0</v>
       </c>
-      <c r="L14" s="0" t="n">
+      <c r="M14" s="0" t="n">
         <v>5836000000.0</v>
       </c>
-      <c r="M14" s="0" t="n">
+      <c r="N14" s="0" t="n">
         <v>5313000000.0</v>
       </c>
-      <c r="N14" s="0" t="n">
+      <c r="O14" s="0" t="n">
         <v>4879000000.0</v>
       </c>
-      <c r="O14" s="0" t="n">
+      <c r="P14" s="0" t="n">
         <v>3748000000.0</v>
       </c>
-      <c r="P14" s="0" t="n">
+      <c r="Q14" s="0" t="n">
         <v>3643000000.0</v>
       </c>
-      <c r="Q14" s="0" t="n">
+      <c r="R14" s="0" t="n">
         <v>3603000000.0</v>
       </c>
-      <c r="R14" s="0" t="n">
+      <c r="S14" s="0" t="n">
         <v>3836000000.0</v>
       </c>
-      <c r="S14" s="0" t="n">
+      <c r="T14" s="0" t="n">
         <v>3868000000.0</v>
       </c>
-      <c r="T14" s="0" t="n">
+      <c r="U14" s="0" t="n">
         <v>4101000000.0</v>
       </c>
-      <c r="U14" s="0" t="n">
+      <c r="V14" s="0" t="n">
         <v>4340000000.0</v>
-      </c>
-      <c r="V14" s="0" t="n">
-        <v>4476000000.0</v>
       </c>
       <c r="W14" s="0" t="n">
         <v>4476000000.0</v>
       </c>
       <c r="X14" s="0" t="n">
+        <v>4476000000.0</v>
+      </c>
+      <c r="Y14" s="0" t="n">
         <v>4549000000.0</v>
       </c>
-      <c r="Y14" s="0" t="n">
+      <c r="Z14" s="0" t="n">
         <v>4397000000.0</v>
       </c>
-      <c r="Z14" s="0" t="n">
+      <c r="AA14" s="0" t="n">
         <v>4174000000.0</v>
       </c>
-      <c r="AA14" s="0" t="n">
+      <c r="AB14" s="0" t="n">
         <v>4553000000.0</v>
       </c>
-      <c r="AB14" s="0" t="n">
+      <c r="AC14" s="0" t="n">
         <v>4148000000.0</v>
       </c>
-      <c r="AC14" s="0" t="n">
+      <c r="AD14" s="0" t="n">
         <v>3899000000.0</v>
       </c>
-      <c r="AD14" s="0" t="n">
+      <c r="AE14" s="0" t="n">
         <v>3857000000.0</v>
       </c>
-      <c r="AE14" s="0" t="n">
+      <c r="AF14" s="0" t="n">
         <v>3312000000.0</v>
       </c>
-      <c r="AF14" s="0" t="n">
+      <c r="AG14" s="0" t="n">
         <v>3305000000.0</v>
       </c>
-      <c r="AG14" s="0" t="n">
+      <c r="AH14" s="0" t="n">
         <v>3146000000.0</v>
       </c>
-      <c r="AH14" s="0" t="n">
+      <c r="AI14" s="0" t="n">
         <v>2845000000.0</v>
       </c>
-      <c r="AI14" s="0" t="n">
+      <c r="AJ14" s="0" t="n">
         <v>1998000000.0</v>
       </c>
-      <c r="AJ14" s="0" t="n">
+      <c r="AK14" s="0" t="n">
         <v>2042000000.0</v>
       </c>
-      <c r="AK14" s="0" t="n">
+      <c r="AL14" s="0" t="n">
         <v>2076000000.0</v>
       </c>
-      <c r="AL14" s="0" t="n">
+      <c r="AM14" s="0" t="n">
         <v>2135000000.0</v>
       </c>
-      <c r="AM14" s="0" t="n">
+      <c r="AN14" s="0" t="n">
         <v>3116000000.0</v>
       </c>
-      <c r="AN14" s="0" t="n">
+      <c r="AO14" s="0" t="n">
         <v>2698000000.0</v>
       </c>
     </row>
@@ -1931,121 +1976,126 @@
           <t>EPS (Basic)</t>
         </is>
       </c>
-      <c r="B15" s="0" t="n">
+      <c r="B15" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="C15" s="0" t="n">
         <v>4.24</v>
       </c>
-      <c r="C15" s="0" t="n">
+      <c r="D15" s="0" t="n">
         <v>3.51</v>
       </c>
-      <c r="D15" s="0" t="n">
+      <c r="E15" s="0" t="n">
         <v>6.03</v>
       </c>
-      <c r="E15" s="0" t="n">
+      <c r="F15" s="0" t="n">
         <v>7.8</v>
       </c>
-      <c r="F15" s="0" t="n">
+      <c r="G15" s="0" t="n">
         <v>9.56</v>
-      </c>
-      <c r="G15" s="0" t="n">
-        <v>9.53</v>
       </c>
       <c r="H15" s="0" t="n">
         <v>9.53</v>
       </c>
       <c r="I15" s="0" t="n">
+        <v>9.53</v>
+      </c>
+      <c r="J15" s="0" t="n">
         <v>11.05</v>
       </c>
-      <c r="J15" s="0" t="n">
+      <c r="K15" s="0" t="n">
         <v>11.97</v>
       </c>
-      <c r="K15" s="0" t="n">
+      <c r="L15" s="0" t="n">
         <v>14.97</v>
       </c>
-      <c r="L15" s="0" t="n">
+      <c r="M15" s="0" t="n">
         <v>14.79</v>
       </c>
-      <c r="M15" s="0" t="n">
+      <c r="N15" s="0" t="n">
         <v>13.38</v>
       </c>
-      <c r="N15" s="0" t="n">
+      <c r="O15" s="0" t="n">
         <v>12.25</v>
       </c>
-      <c r="O15" s="0" t="n">
+      <c r="P15" s="0" t="n">
         <v>9.33</v>
       </c>
-      <c r="P15" s="0" t="n">
+      <c r="Q15" s="0" t="n">
         <v>8.96</v>
       </c>
-      <c r="Q15" s="0" t="n">
+      <c r="R15" s="0" t="n">
         <v>8.71</v>
       </c>
-      <c r="R15" s="0" t="n">
+      <c r="S15" s="0" t="n">
         <v>9.1</v>
       </c>
-      <c r="S15" s="0" t="n">
+      <c r="T15" s="0" t="n">
         <v>9.01</v>
       </c>
-      <c r="T15" s="0" t="n">
+      <c r="U15" s="0" t="n">
         <v>9.25</v>
       </c>
-      <c r="U15" s="0" t="n">
+      <c r="V15" s="0" t="n">
         <v>9.51</v>
       </c>
-      <c r="V15" s="0" t="n">
+      <c r="W15" s="0" t="n">
         <v>9.55</v>
       </c>
-      <c r="W15" s="0" t="n">
+      <c r="X15" s="0" t="n">
         <v>9.31</v>
       </c>
-      <c r="X15" s="0" t="n">
+      <c r="Y15" s="0" t="n">
         <v>9.22</v>
       </c>
-      <c r="Y15" s="0" t="n">
+      <c r="Z15" s="0" t="n">
         <v>8.63</v>
       </c>
-      <c r="Z15" s="0" t="n">
+      <c r="AA15" s="0" t="n">
         <v>7.94</v>
       </c>
-      <c r="AA15" s="0" t="n">
+      <c r="AB15" s="0" t="n">
         <v>8.51</v>
       </c>
-      <c r="AB15" s="0" t="n">
+      <c r="AC15" s="0" t="n">
         <v>7.56</v>
       </c>
-      <c r="AC15" s="0" t="n">
+      <c r="AD15" s="0" t="n">
         <v>6.94</v>
       </c>
-      <c r="AD15" s="0" t="n">
+      <c r="AE15" s="0" t="n">
         <v>6.77</v>
       </c>
-      <c r="AE15" s="0" t="n">
+      <c r="AF15" s="0" t="n">
         <v>5.75</v>
       </c>
-      <c r="AF15" s="0" t="n">
+      <c r="AG15" s="0" t="n">
         <v>5.71</v>
       </c>
-      <c r="AG15" s="0" t="n">
+      <c r="AH15" s="0" t="n">
         <v>5.43</v>
       </c>
-      <c r="AH15" s="0" t="n">
+      <c r="AI15" s="0" t="n">
         <v>4.92</v>
       </c>
-      <c r="AI15" s="0" t="n">
+      <c r="AJ15" s="0" t="n">
         <v>3.45</v>
       </c>
-      <c r="AJ15" s="0" t="n">
+      <c r="AK15" s="0" t="n">
         <v>3.5</v>
       </c>
-      <c r="AK15" s="0" t="n">
+      <c r="AL15" s="0" t="n">
         <v>3.55</v>
       </c>
-      <c r="AL15" s="0" t="n">
+      <c r="AM15" s="0" t="n">
         <v>3.66</v>
       </c>
-      <c r="AM15" s="0" t="n">
+      <c r="AN15" s="0" t="n">
         <v>5.58</v>
       </c>
-      <c r="AN15" s="0" t="n">
+      <c r="AO15" s="0" t="n">
         <v>4.91</v>
       </c>
     </row>
@@ -2055,121 +2105,126 @@
           <t>Gross Margin</t>
         </is>
       </c>
-      <c r="B16" s="0" t="n">
+      <c r="B16" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="C16" s="0" t="n">
         <v>0.118</v>
       </c>
-      <c r="C16" s="0" t="n">
+      <c r="D16" s="0" t="n">
         <v>0.1143</v>
       </c>
-      <c r="D16" s="0" t="n">
+      <c r="E16" s="0" t="n">
         <v>0.127</v>
       </c>
-      <c r="E16" s="0" t="n">
+      <c r="F16" s="0" t="n">
         <v>0.1419</v>
       </c>
-      <c r="F16" s="0" t="n">
+      <c r="G16" s="0" t="n">
         <v>0.1566</v>
       </c>
-      <c r="G16" s="0" t="n">
+      <c r="H16" s="0" t="n">
         <v>0.1535</v>
       </c>
-      <c r="H16" s="0" t="n">
+      <c r="I16" s="0" t="n">
         <v>0.1531</v>
       </c>
-      <c r="I16" s="0" t="n">
+      <c r="J16" s="0" t="n">
         <v>0.1592</v>
       </c>
-      <c r="J16" s="0" t="n">
+      <c r="K16" s="0" t="n">
         <v>0.166</v>
       </c>
-      <c r="K16" s="0" t="n">
+      <c r="L16" s="0" t="n">
         <v>0.1766</v>
       </c>
-      <c r="L16" s="0" t="n">
+      <c r="M16" s="0" t="n">
         <v>0.1822</v>
       </c>
-      <c r="M16" s="0" t="n">
+      <c r="N16" s="0" t="n">
         <v>0.1882</v>
       </c>
-      <c r="N16" s="0" t="n">
+      <c r="O16" s="0" t="n">
         <v>0.1863</v>
       </c>
-      <c r="O16" s="0" t="n">
+      <c r="P16" s="0" t="n">
         <v>0.1857</v>
       </c>
-      <c r="P16" s="0" t="n">
+      <c r="Q16" s="0" t="n">
         <v>0.1888</v>
       </c>
-      <c r="Q16" s="0" t="n">
+      <c r="R16" s="0" t="n">
         <v>0.1896</v>
       </c>
-      <c r="R16" s="0" t="n">
+      <c r="S16" s="0" t="n">
         <v>0.2053</v>
       </c>
-      <c r="S16" s="0" t="n">
+      <c r="T16" s="0" t="n">
         <v>0.2085</v>
       </c>
-      <c r="T16" s="0" t="n">
+      <c r="U16" s="0" t="n">
         <v>0.2155</v>
       </c>
-      <c r="U16" s="0" t="n">
+      <c r="V16" s="0" t="n">
         <v>0.218</v>
       </c>
-      <c r="V16" s="0" t="n">
+      <c r="W16" s="0" t="n">
         <v>0.2154</v>
       </c>
-      <c r="W16" s="0" t="n">
+      <c r="X16" s="0" t="n">
         <v>0.1968</v>
       </c>
-      <c r="X16" s="0" t="n">
+      <c r="Y16" s="0" t="n">
         <v>0.1802</v>
       </c>
-      <c r="Y16" s="0" t="n">
+      <c r="Z16" s="0" t="n">
         <v>0.1622</v>
       </c>
-      <c r="Z16" s="0" t="n">
+      <c r="AA16" s="0" t="n">
         <v>0.1462</v>
       </c>
-      <c r="AA16" s="0" t="n">
+      <c r="AB16" s="0" t="n">
         <v>0.1486</v>
       </c>
-      <c r="AB16" s="0" t="n">
+      <c r="AC16" s="0" t="n">
         <v>0.1409</v>
       </c>
-      <c r="AC16" s="0" t="n">
+      <c r="AD16" s="0" t="n">
         <v>0.1384</v>
       </c>
-      <c r="AD16" s="0" t="n">
+      <c r="AE16" s="0" t="n">
         <v>0.1389</v>
       </c>
-      <c r="AE16" s="0" t="n">
+      <c r="AF16" s="0" t="n">
         <v>0.1329</v>
       </c>
-      <c r="AF16" s="0" t="n">
+      <c r="AG16" s="0" t="n">
         <v>0.1357</v>
       </c>
-      <c r="AG16" s="0" t="n">
+      <c r="AH16" s="0" t="n">
         <v>0.1371</v>
       </c>
-      <c r="AH16" s="0" t="n">
+      <c r="AI16" s="0" t="n">
         <v>0.1269</v>
       </c>
-      <c r="AI16" s="0" t="n">
+      <c r="AJ16" s="0" t="n">
         <v>0.1183</v>
       </c>
-      <c r="AJ16" s="0" t="n">
+      <c r="AK16" s="0" t="n">
         <v>0.119</v>
       </c>
-      <c r="AK16" s="0" t="n">
+      <c r="AL16" s="0" t="n">
         <v>0.1121</v>
       </c>
-      <c r="AL16" s="0" t="n">
+      <c r="AM16" s="0" t="n">
         <v>0.1131</v>
       </c>
-      <c r="AM16" s="0" t="n">
+      <c r="AN16" s="0" t="n">
         <v>0.1259</v>
       </c>
-      <c r="AN16" s="0" t="n">
+      <c r="AO16" s="0" t="n">
         <v>0.1197</v>
       </c>
     </row>
@@ -2179,121 +2234,126 @@
           <t>EBIT Margin</t>
         </is>
       </c>
-      <c r="B17" s="0" t="n">
+      <c r="B17" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="C17" s="0" t="n">
         <v>0.0562</v>
       </c>
-      <c r="C17" s="0" t="n">
+      <c r="D17" s="0" t="n">
         <v>0.0523</v>
       </c>
-      <c r="D17" s="0" t="n">
+      <c r="E17" s="0" t="n">
         <v>0.0857</v>
       </c>
-      <c r="E17" s="0" t="n">
+      <c r="F17" s="0" t="n">
         <v>0.1017</v>
       </c>
-      <c r="F17" s="0" t="n">
+      <c r="G17" s="0" t="n">
         <v>0.1185</v>
       </c>
-      <c r="G17" s="0" t="n">
+      <c r="H17" s="0" t="n">
         <v>0.1161</v>
       </c>
-      <c r="H17" s="0" t="n">
+      <c r="I17" s="0" t="n">
         <v>0.1168</v>
       </c>
-      <c r="I17" s="0" t="n">
+      <c r="J17" s="0" t="n">
         <v>0.1251</v>
       </c>
-      <c r="J17" s="0" t="n">
+      <c r="K17" s="0" t="n">
         <v>0.1341</v>
       </c>
-      <c r="K17" s="0" t="n">
+      <c r="L17" s="0" t="n">
         <v>0.1472</v>
       </c>
-      <c r="L17" s="0" t="n">
+      <c r="M17" s="0" t="n">
         <v>0.154</v>
       </c>
-      <c r="M17" s="0" t="n">
+      <c r="N17" s="0" t="n">
         <v>0.1604</v>
       </c>
-      <c r="N17" s="0" t="n">
+      <c r="O17" s="0" t="n">
         <v>0.1583</v>
       </c>
-      <c r="O17" s="0" t="n">
+      <c r="P17" s="0" t="n">
         <v>0.1561</v>
-      </c>
-      <c r="P17" s="0" t="n">
-        <v>0.1591</v>
       </c>
       <c r="Q17" s="0" t="n">
         <v>0.1591</v>
       </c>
       <c r="R17" s="0" t="n">
+        <v>0.1591</v>
+      </c>
+      <c r="S17" s="0" t="n">
         <v>0.1734</v>
       </c>
-      <c r="S17" s="0" t="n">
+      <c r="T17" s="0" t="n">
         <v>0.1776</v>
       </c>
-      <c r="T17" s="0" t="n">
+      <c r="U17" s="0" t="n">
         <v>0.1854</v>
       </c>
-      <c r="U17" s="0" t="n">
+      <c r="V17" s="0" t="n">
         <v>0.1888</v>
       </c>
-      <c r="V17" s="0" t="n">
+      <c r="W17" s="0" t="n">
         <v>0.187</v>
       </c>
-      <c r="W17" s="0" t="n">
+      <c r="X17" s="0" t="n">
         <v>0.171</v>
       </c>
-      <c r="X17" s="0" t="n">
+      <c r="Y17" s="0" t="n">
         <v>0.1563</v>
       </c>
-      <c r="Y17" s="0" t="n">
+      <c r="Z17" s="0" t="n">
         <v>0.14</v>
       </c>
-      <c r="Z17" s="0" t="n">
+      <c r="AA17" s="0" t="n">
         <v>0.1258</v>
       </c>
-      <c r="AA17" s="0" t="n">
+      <c r="AB17" s="0" t="n">
         <v>0.1275</v>
       </c>
-      <c r="AB17" s="0" t="n">
+      <c r="AC17" s="0" t="n">
         <v>0.1191</v>
       </c>
-      <c r="AC17" s="0" t="n">
+      <c r="AD17" s="0" t="n">
         <v>0.1162</v>
       </c>
-      <c r="AD17" s="0" t="n">
+      <c r="AE17" s="0" t="n">
         <v>0.1158</v>
       </c>
-      <c r="AE17" s="0" t="n">
+      <c r="AF17" s="0" t="n">
         <v>0.109</v>
       </c>
-      <c r="AF17" s="0" t="n">
+      <c r="AG17" s="0" t="n">
         <v>0.1114</v>
       </c>
-      <c r="AG17" s="0" t="n">
+      <c r="AH17" s="0" t="n">
         <v>0.113</v>
       </c>
-      <c r="AH17" s="0" t="n">
+      <c r="AI17" s="0" t="n">
         <v>0.1031</v>
       </c>
-      <c r="AI17" s="0" t="n">
+      <c r="AJ17" s="0" t="n">
         <v>0.0944</v>
       </c>
-      <c r="AJ17" s="0" t="n">
+      <c r="AK17" s="0" t="n">
         <v>0.0954</v>
       </c>
-      <c r="AK17" s="0" t="n">
+      <c r="AL17" s="0" t="n">
         <v>0.0884</v>
       </c>
-      <c r="AL17" s="0" t="n">
+      <c r="AM17" s="0" t="n">
         <v>0.09</v>
       </c>
-      <c r="AM17" s="0" t="n">
+      <c r="AN17" s="0" t="n">
         <v>0.1025</v>
       </c>
-      <c r="AN17" s="0" t="n">
+      <c r="AO17" s="0" t="n">
         <v>0.0962</v>
       </c>
     </row>
@@ -2303,121 +2363,126 @@
           <t>EBT margin</t>
         </is>
       </c>
-      <c r="B18" s="0" t="n">
+      <c r="B18" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="C18" s="0" t="n">
         <v>0.0499</v>
       </c>
-      <c r="C18" s="0" t="n">
+      <c r="D18" s="0" t="n">
         <v>0.0444</v>
       </c>
-      <c r="D18" s="0" t="n">
+      <c r="E18" s="0" t="n">
         <v>0.0787</v>
       </c>
-      <c r="E18" s="0" t="n">
+      <c r="F18" s="0" t="n">
         <v>0.0971</v>
       </c>
-      <c r="F18" s="0" t="n">
+      <c r="G18" s="0" t="n">
         <v>0.1167</v>
       </c>
-      <c r="G18" s="0" t="n">
+      <c r="H18" s="0" t="n">
         <v>0.1156</v>
       </c>
-      <c r="H18" s="0" t="n">
+      <c r="I18" s="0" t="n">
         <v>0.1177</v>
       </c>
-      <c r="I18" s="0" t="n">
+      <c r="J18" s="0" t="n">
         <v>0.1262</v>
       </c>
-      <c r="J18" s="0" t="n">
+      <c r="K18" s="0" t="n">
         <v>0.1362</v>
       </c>
-      <c r="K18" s="0" t="n">
+      <c r="L18" s="0" t="n">
         <v>0.1492</v>
       </c>
-      <c r="L18" s="0" t="n">
+      <c r="M18" s="0" t="n">
         <v>0.1581</v>
       </c>
-      <c r="M18" s="0" t="n">
+      <c r="N18" s="0" t="n">
         <v>0.1649</v>
       </c>
-      <c r="N18" s="0" t="n">
+      <c r="O18" s="0" t="n">
         <v>0.1593</v>
       </c>
-      <c r="O18" s="0" t="n">
+      <c r="P18" s="0" t="n">
         <v>0.1572</v>
       </c>
-      <c r="P18" s="0" t="n">
+      <c r="Q18" s="0" t="n">
         <v>0.158</v>
       </c>
-      <c r="Q18" s="0" t="n">
+      <c r="R18" s="0" t="n">
         <v>0.1584</v>
       </c>
-      <c r="R18" s="0" t="n">
+      <c r="S18" s="0" t="n">
         <v>0.1793</v>
       </c>
-      <c r="S18" s="0" t="n">
+      <c r="T18" s="0" t="n">
         <v>0.1838</v>
       </c>
-      <c r="T18" s="0" t="n">
+      <c r="U18" s="0" t="n">
         <v>0.1912</v>
       </c>
-      <c r="U18" s="0" t="n">
+      <c r="V18" s="0" t="n">
         <v>0.1938</v>
       </c>
-      <c r="V18" s="0" t="n">
+      <c r="W18" s="0" t="n">
         <v>0.1897</v>
       </c>
-      <c r="W18" s="0" t="n">
+      <c r="X18" s="0" t="n">
         <v>0.1737</v>
       </c>
-      <c r="X18" s="0" t="n">
+      <c r="Y18" s="0" t="n">
         <v>0.1578</v>
       </c>
-      <c r="Y18" s="0" t="n">
+      <c r="Z18" s="0" t="n">
         <v>0.1405</v>
       </c>
-      <c r="Z18" s="0" t="n">
+      <c r="AA18" s="0" t="n">
         <v>0.1252</v>
       </c>
-      <c r="AA18" s="0" t="n">
+      <c r="AB18" s="0" t="n">
         <v>0.1254</v>
       </c>
-      <c r="AB18" s="0" t="n">
+      <c r="AC18" s="0" t="n">
         <v>0.1169</v>
       </c>
-      <c r="AC18" s="0" t="n">
+      <c r="AD18" s="0" t="n">
         <v>0.1136</v>
       </c>
-      <c r="AD18" s="0" t="n">
+      <c r="AE18" s="0" t="n">
         <v>0.1134</v>
       </c>
-      <c r="AE18" s="0" t="n">
+      <c r="AF18" s="0" t="n">
         <v>0.1072</v>
       </c>
-      <c r="AF18" s="0" t="n">
+      <c r="AG18" s="0" t="n">
         <v>0.109</v>
       </c>
-      <c r="AG18" s="0" t="n">
+      <c r="AH18" s="0" t="n">
         <v>0.1028</v>
       </c>
-      <c r="AH18" s="0" t="n">
+      <c r="AI18" s="0" t="n">
         <v>0.0923</v>
       </c>
-      <c r="AI18" s="0" t="n">
+      <c r="AJ18" s="0" t="n">
         <v>0.0723</v>
       </c>
-      <c r="AJ18" s="0" t="n">
+      <c r="AK18" s="0" t="n">
         <v>0.0732</v>
       </c>
-      <c r="AK18" s="0" t="n">
+      <c r="AL18" s="0" t="n">
         <v>0.0735</v>
       </c>
-      <c r="AL18" s="0" t="n">
+      <c r="AM18" s="0" t="n">
         <v>0.0733</v>
       </c>
-      <c r="AM18" s="0" t="n">
+      <c r="AN18" s="0" t="n">
         <v>0.0855</v>
       </c>
-      <c r="AN18" s="0" t="n">
+      <c r="AO18" s="0" t="n">
         <v>0.074</v>
       </c>
     </row>
@@ -2427,121 +2492,126 @@
           <t>Net Profit Margin</t>
         </is>
       </c>
-      <c r="B19" s="0" t="n">
+      <c r="B19" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="C19" s="0" t="n">
         <v>0.0511</v>
       </c>
-      <c r="C19" s="0" t="n">
+      <c r="D19" s="0" t="n">
         <v>0.0419</v>
       </c>
-      <c r="D19" s="0" t="n">
+      <c r="E19" s="0" t="n">
         <v>0.0677</v>
       </c>
-      <c r="E19" s="0" t="n">
+      <c r="F19" s="0" t="n">
         <v>0.0812</v>
       </c>
-      <c r="F19" s="0" t="n">
+      <c r="G19" s="0" t="n">
         <v>0.0976</v>
       </c>
-      <c r="G19" s="0" t="n">
+      <c r="H19" s="0" t="n">
         <v>0.098</v>
       </c>
-      <c r="H19" s="0" t="n">
+      <c r="I19" s="0" t="n">
         <v>0.0982</v>
       </c>
-      <c r="I19" s="0" t="n">
+      <c r="J19" s="0" t="n">
         <v>0.1124</v>
       </c>
-      <c r="J19" s="0" t="n">
+      <c r="K19" s="0" t="n">
         <v>0.1202</v>
       </c>
-      <c r="K19" s="0" t="n">
+      <c r="L19" s="0" t="n">
         <v>0.1501</v>
       </c>
-      <c r="L19" s="0" t="n">
+      <c r="M19" s="0" t="n">
         <v>0.1551</v>
       </c>
-      <c r="M19" s="0" t="n">
+      <c r="N19" s="0" t="n">
         <v>0.1483</v>
       </c>
-      <c r="N19" s="0" t="n">
+      <c r="O19" s="0" t="n">
         <v>0.1415</v>
       </c>
-      <c r="O19" s="0" t="n">
+      <c r="P19" s="0" t="n">
         <v>0.1132</v>
       </c>
-      <c r="P19" s="0" t="n">
+      <c r="Q19" s="0" t="n">
         <v>0.114</v>
       </c>
-      <c r="Q19" s="0" t="n">
+      <c r="R19" s="0" t="n">
         <v>0.1167</v>
       </c>
-      <c r="R19" s="0" t="n">
+      <c r="S19" s="0" t="n">
         <v>0.1314</v>
       </c>
-      <c r="S19" s="0" t="n">
+      <c r="T19" s="0" t="n">
         <v>0.1357</v>
       </c>
-      <c r="T19" s="0" t="n">
+      <c r="U19" s="0" t="n">
         <v>0.1391</v>
       </c>
-      <c r="U19" s="0" t="n">
+      <c r="V19" s="0" t="n">
         <v>0.1387</v>
       </c>
-      <c r="V19" s="0" t="n">
+      <c r="W19" s="0" t="n">
         <v>0.1367</v>
       </c>
-      <c r="W19" s="0" t="n">
+      <c r="X19" s="0" t="n">
         <v>0.1245</v>
       </c>
-      <c r="X19" s="0" t="n">
+      <c r="Y19" s="0" t="n">
         <v>0.1146</v>
       </c>
-      <c r="Y19" s="0" t="n">
+      <c r="Z19" s="0" t="n">
         <v>0.1031</v>
       </c>
-      <c r="Z19" s="0" t="n">
+      <c r="AA19" s="0" t="n">
         <v>0.0915</v>
       </c>
-      <c r="AA19" s="0" t="n">
+      <c r="AB19" s="0" t="n">
         <v>0.098</v>
       </c>
-      <c r="AB19" s="0" t="n">
+      <c r="AC19" s="0" t="n">
         <v>0.0911</v>
       </c>
-      <c r="AC19" s="0" t="n">
+      <c r="AD19" s="0" t="n">
         <v>0.0876</v>
       </c>
-      <c r="AD19" s="0" t="n">
+      <c r="AE19" s="0" t="n">
         <v>0.0875</v>
       </c>
-      <c r="AE19" s="0" t="n">
+      <c r="AF19" s="0" t="n">
         <v>0.0752</v>
       </c>
-      <c r="AF19" s="0" t="n">
+      <c r="AG19" s="0" t="n">
         <v>0.0749</v>
       </c>
-      <c r="AG19" s="0" t="n">
+      <c r="AH19" s="0" t="n">
         <v>0.071</v>
       </c>
-      <c r="AH19" s="0" t="n">
+      <c r="AI19" s="0" t="n">
         <v>0.0627</v>
       </c>
-      <c r="AI19" s="0" t="n">
+      <c r="AJ19" s="0" t="n">
         <v>0.045</v>
       </c>
-      <c r="AJ19" s="0" t="n">
+      <c r="AK19" s="0" t="n">
         <v>0.0448</v>
       </c>
-      <c r="AK19" s="0" t="n">
+      <c r="AL19" s="0" t="n">
         <v>0.0436</v>
       </c>
-      <c r="AL19" s="0" t="n">
+      <c r="AM19" s="0" t="n">
         <v>0.0443</v>
       </c>
-      <c r="AM19" s="0" t="n">
+      <c r="AN19" s="0" t="n">
         <v>0.0671</v>
       </c>
-      <c r="AN19" s="0" t="n">
+      <c r="AO19" s="0" t="n">
         <v>0.061</v>
       </c>
     </row>
@@ -2551,121 +2621,126 @@
           <t>Free Cash Flow Margin</t>
         </is>
       </c>
-      <c r="B20" s="0" t="n">
+      <c r="B20" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="C20" s="0" t="n">
         <v>0.0525</v>
       </c>
-      <c r="C20" s="0" t="n">
+      <c r="D20" s="0" t="n">
         <v>0.0535</v>
       </c>
-      <c r="D20" s="0" t="n">
+      <c r="E20" s="0" t="n">
         <v>0.0745</v>
       </c>
-      <c r="E20" s="0" t="n">
+      <c r="F20" s="0" t="n">
         <v>0.0625</v>
       </c>
-      <c r="F20" s="0" t="n">
+      <c r="G20" s="0" t="n">
         <v>0.0653</v>
       </c>
-      <c r="G20" s="0" t="n">
+      <c r="H20" s="0" t="n">
         <v>0.0665</v>
       </c>
-      <c r="H20" s="0" t="n">
+      <c r="I20" s="0" t="n">
         <v>0.0591</v>
       </c>
-      <c r="I20" s="0" t="n">
+      <c r="J20" s="0" t="n">
         <v>0.0749</v>
       </c>
-      <c r="J20" s="0" t="n">
+      <c r="K20" s="0" t="n">
         <v>0.0863</v>
       </c>
-      <c r="K20" s="0" t="n">
+      <c r="L20" s="0" t="n">
         <v>0.098</v>
       </c>
-      <c r="L20" s="0" t="n">
+      <c r="M20" s="0" t="n">
         <v>0.1078</v>
       </c>
-      <c r="M20" s="0" t="n">
+      <c r="N20" s="0" t="n">
         <v>0.1111</v>
       </c>
-      <c r="N20" s="0" t="n">
+      <c r="O20" s="0" t="n">
         <v>0.1061</v>
       </c>
-      <c r="O20" s="0" t="n">
+      <c r="P20" s="0" t="n">
         <v>0.1125</v>
       </c>
-      <c r="P20" s="0" t="n">
+      <c r="Q20" s="0" t="n">
         <v>0.1034</v>
       </c>
-      <c r="Q20" s="0" t="n">
+      <c r="R20" s="0" t="n">
         <v>0.0922</v>
       </c>
-      <c r="R20" s="0" t="n">
+      <c r="S20" s="0" t="n">
         <v>0.1152</v>
       </c>
-      <c r="S20" s="0" t="n">
+      <c r="T20" s="0" t="n">
         <v>0.1015</v>
       </c>
-      <c r="T20" s="0" t="n">
+      <c r="U20" s="0" t="n">
         <v>0.1202</v>
       </c>
-      <c r="U20" s="0" t="n">
+      <c r="V20" s="0" t="n">
         <v>0.1282</v>
       </c>
-      <c r="V20" s="0" t="n">
+      <c r="W20" s="0" t="n">
         <v>0.1345</v>
       </c>
-      <c r="W20" s="0" t="n">
+      <c r="X20" s="0" t="n">
         <v>0.1485</v>
       </c>
-      <c r="X20" s="0" t="n">
+      <c r="Y20" s="0" t="n">
         <v>0.127</v>
       </c>
-      <c r="Y20" s="0" t="n">
+      <c r="Z20" s="0" t="n">
         <v>0.1231</v>
       </c>
-      <c r="Z20" s="0" t="n">
+      <c r="AA20" s="0" t="n">
         <v>0.0997</v>
       </c>
-      <c r="AA20" s="0" t="n">
+      <c r="AB20" s="0" t="n">
         <v>0.0915</v>
       </c>
-      <c r="AB20" s="0" t="n">
+      <c r="AC20" s="0" t="n">
         <v>0.0845</v>
       </c>
-      <c r="AC20" s="0" t="n">
+      <c r="AD20" s="0" t="n">
         <v>0.0746</v>
       </c>
-      <c r="AD20" s="0" t="n">
+      <c r="AE20" s="0" t="n">
         <v>0.0743</v>
       </c>
-      <c r="AE20" s="0" t="n">
+      <c r="AF20" s="0" t="n">
         <v>0.0671</v>
       </c>
-      <c r="AF20" s="0" t="n">
+      <c r="AG20" s="0" t="n">
         <v>0.0915</v>
       </c>
-      <c r="AG20" s="0" t="n">
+      <c r="AH20" s="0" t="n">
         <v>0.0779</v>
       </c>
-      <c r="AH20" s="0" t="n">
+      <c r="AI20" s="0" t="n">
         <v>0.0822</v>
       </c>
-      <c r="AI20" s="0" t="n">
+      <c r="AJ20" s="0" t="n">
         <v>0.0569</v>
       </c>
-      <c r="AJ20" s="0" t="n">
+      <c r="AK20" s="0" t="n">
         <v>0.0439</v>
       </c>
-      <c r="AK20" s="0" t="n">
+      <c r="AL20" s="0" t="n">
         <v>0.0537</v>
       </c>
-      <c r="AL20" s="0" t="n">
+      <c r="AM20" s="0" t="n">
         <v>0.039</v>
       </c>
-      <c r="AM20" s="0" t="n">
+      <c r="AN20" s="0" t="n">
         <v>0.0598</v>
       </c>
-      <c r="AN20" s="0" t="n">
+      <c r="AO20" s="0" t="n">
         <v>0.0564</v>
       </c>
     </row>
@@ -2676,120 +2751,123 @@
         </is>
       </c>
       <c r="B21" s="0" t="n">
+        <v>4177000000.0</v>
+      </c>
+      <c r="C21" s="0" t="n">
         <v>3407000000.0</v>
       </c>
-      <c r="C21" s="0" t="n">
+      <c r="D21" s="0" t="n">
         <v>3370000000.0</v>
       </c>
-      <c r="D21" s="0" t="n">
+      <c r="E21" s="0" t="n">
         <v>3902000000.0</v>
       </c>
-      <c r="E21" s="0" t="n">
+      <c r="F21" s="0" t="n">
         <v>4806000000.0</v>
       </c>
-      <c r="F21" s="0" t="n">
+      <c r="G21" s="0" t="n">
         <v>5488000000.0</v>
       </c>
-      <c r="G21" s="0" t="n">
+      <c r="H21" s="0" t="n">
         <v>5432000000.0</v>
       </c>
-      <c r="H21" s="0" t="n">
+      <c r="I21" s="0" t="n">
         <v>5608000000.0</v>
       </c>
-      <c r="I21" s="0" t="n">
+      <c r="J21" s="0" t="n">
         <v>6029000000.0</v>
       </c>
-      <c r="J21" s="0" t="n">
+      <c r="K21" s="0" t="n">
         <v>6486000000.0</v>
-      </c>
-      <c r="K21" s="0" t="n">
-        <v>6998000000.0</v>
       </c>
       <c r="L21" s="0" t="n">
         <v>6998000000.0</v>
       </c>
       <c r="M21" s="0" t="n">
+        <v>6998000000.0</v>
+      </c>
+      <c r="N21" s="0" t="n">
         <v>6936000000.0</v>
       </c>
-      <c r="N21" s="0" t="n">
+      <c r="O21" s="0" t="n">
         <v>6649000000.0</v>
       </c>
-      <c r="O21" s="0" t="n">
+      <c r="P21" s="0" t="n">
         <v>6332000000.0</v>
       </c>
-      <c r="P21" s="0" t="n">
+      <c r="Q21" s="0" t="n">
         <v>6211000000.0</v>
       </c>
-      <c r="Q21" s="0" t="n">
+      <c r="R21" s="0" t="n">
         <v>6018000000.0</v>
       </c>
-      <c r="R21" s="0" t="n">
+      <c r="S21" s="0" t="n">
         <v>6140000000.0</v>
       </c>
-      <c r="S21" s="0" t="n">
+      <c r="T21" s="0" t="n">
         <v>6136000000.0</v>
       </c>
-      <c r="T21" s="0" t="n">
+      <c r="U21" s="0" t="n">
         <v>6529000000.0</v>
       </c>
-      <c r="U21" s="0" t="n">
+      <c r="V21" s="0" t="n">
         <v>6951000000.0</v>
       </c>
-      <c r="V21" s="0" t="n">
+      <c r="W21" s="0" t="n">
         <v>7185000000.0</v>
       </c>
-      <c r="W21" s="0" t="n">
+      <c r="X21" s="0" t="n">
         <v>7192000000.0</v>
       </c>
-      <c r="X21" s="0" t="n">
+      <c r="Y21" s="0" t="n">
         <v>7262000000.0</v>
       </c>
-      <c r="Y21" s="0" t="n">
+      <c r="Z21" s="0" t="n">
         <v>7036000000.0</v>
       </c>
-      <c r="Z21" s="0" t="n">
+      <c r="AA21" s="0" t="n">
         <v>6775000000.0</v>
       </c>
-      <c r="AA21" s="0" t="n">
+      <c r="AB21" s="0" t="n">
         <v>6968000000.0</v>
       </c>
-      <c r="AB21" s="0" t="n">
+      <c r="AC21" s="0" t="n">
         <v>6470000000.0</v>
       </c>
-      <c r="AC21" s="0" t="n">
+      <c r="AD21" s="0" t="n">
         <v>6223000000.0</v>
       </c>
-      <c r="AD21" s="0" t="n">
+      <c r="AE21" s="0" t="n">
         <v>6144000000.0</v>
       </c>
-      <c r="AE21" s="0" t="n">
+      <c r="AF21" s="0" t="n">
         <v>5854000000.0</v>
       </c>
-      <c r="AF21" s="0" t="n">
+      <c r="AG21" s="0" t="n">
         <v>5950000000.0</v>
       </c>
-      <c r="AG21" s="0" t="n">
+      <c r="AH21" s="0" t="n">
         <v>6066000000.0</v>
       </c>
-      <c r="AH21" s="0" t="n">
+      <c r="AI21" s="0" t="n">
         <v>5717000000.0</v>
       </c>
-      <c r="AI21" s="0" t="n">
+      <c r="AJ21" s="0" t="n">
         <v>5243000000.0</v>
       </c>
-      <c r="AJ21" s="0" t="n">
+      <c r="AK21" s="0" t="n">
         <v>5411000000.0</v>
       </c>
-      <c r="AK21" s="0" t="n">
+      <c r="AL21" s="0" t="n">
         <v>5218000000.0</v>
       </c>
-      <c r="AL21" s="0" t="n">
+      <c r="AM21" s="0" t="n">
         <v>5329000000.0</v>
       </c>
-      <c r="AM21" s="0" t="n">
+      <c r="AN21" s="0" t="n">
         <v>5683000000.0</v>
       </c>
-      <c r="AN21" s="0" t="n">
+      <c r="AO21" s="0" t="n">
         <v>5165000000.0</v>
       </c>
     </row>
@@ -2800,120 +2878,123 @@
         </is>
       </c>
       <c r="B22" s="0" t="n">
+        <v>2343000000.0</v>
+      </c>
+      <c r="C22" s="0" t="n">
         <v>1559000000.0</v>
       </c>
-      <c r="C22" s="0" t="n">
+      <c r="D22" s="0" t="n">
         <v>1464000000.0</v>
       </c>
-      <c r="D22" s="0" t="n">
+      <c r="E22" s="0" t="n">
         <v>2565000000.0</v>
       </c>
-      <c r="E22" s="0" t="n">
+      <c r="F22" s="0" t="n">
         <v>3403000000.0</v>
       </c>
-      <c r="F22" s="0" t="n">
+      <c r="G22" s="0" t="n">
         <v>4116000000.0</v>
       </c>
-      <c r="G22" s="0" t="n">
+      <c r="H22" s="0" t="n">
         <v>4112000000.0</v>
       </c>
-      <c r="H22" s="0" t="n">
+      <c r="I22" s="0" t="n">
         <v>4305000000.0</v>
       </c>
-      <c r="I22" s="0" t="n">
+      <c r="J22" s="0" t="n">
         <v>4754000000.0</v>
       </c>
-      <c r="J22" s="0" t="n">
+      <c r="K22" s="0" t="n">
         <v>5231000000.0</v>
       </c>
-      <c r="K22" s="0" t="n">
+      <c r="L22" s="0" t="n">
         <v>5778000000.0</v>
       </c>
-      <c r="L22" s="0" t="n">
+      <c r="M22" s="0" t="n">
         <v>5793000000.0</v>
       </c>
-      <c r="M22" s="0" t="n">
+      <c r="N22" s="0" t="n">
         <v>5744000000.0</v>
       </c>
-      <c r="N22" s="0" t="n">
+      <c r="O22" s="0" t="n">
         <v>5460000000.0</v>
       </c>
-      <c r="O22" s="0" t="n">
+      <c r="P22" s="0" t="n">
         <v>5167000000.0</v>
       </c>
-      <c r="P22" s="0" t="n">
+      <c r="Q22" s="0" t="n">
         <v>5084000000.0</v>
       </c>
-      <c r="Q22" s="0" t="n">
+      <c r="R22" s="0" t="n">
         <v>4910000000.0</v>
       </c>
-      <c r="R22" s="0" t="n">
+      <c r="S22" s="0" t="n">
         <v>5060000000.0</v>
       </c>
-      <c r="S22" s="0" t="n">
+      <c r="T22" s="0" t="n">
         <v>5064000000.0</v>
       </c>
-      <c r="T22" s="0" t="n">
+      <c r="U22" s="0" t="n">
         <v>5465000000.0</v>
       </c>
-      <c r="U22" s="0" t="n">
+      <c r="V22" s="0" t="n">
         <v>5907000000.0</v>
       </c>
-      <c r="V22" s="0" t="n">
+      <c r="W22" s="0" t="n">
         <v>6122000000.0</v>
       </c>
-      <c r="W22" s="0" t="n">
+      <c r="X22" s="0" t="n">
         <v>6147000000.0</v>
       </c>
-      <c r="X22" s="0" t="n">
+      <c r="Y22" s="0" t="n">
         <v>6203000000.0</v>
       </c>
-      <c r="Y22" s="0" t="n">
+      <c r="Z22" s="0" t="n">
         <v>5971000000.0</v>
       </c>
-      <c r="Z22" s="0" t="n">
+      <c r="AA22" s="0" t="n">
         <v>5736000000.0</v>
       </c>
-      <c r="AA22" s="0" t="n">
+      <c r="AB22" s="0" t="n">
         <v>5923000000.0</v>
       </c>
-      <c r="AB22" s="0" t="n">
+      <c r="AC22" s="0" t="n">
         <v>5424000000.0</v>
       </c>
-      <c r="AC22" s="0" t="n">
+      <c r="AD22" s="0" t="n">
         <v>5175000000.0</v>
       </c>
-      <c r="AD22" s="0" t="n">
+      <c r="AE22" s="0" t="n">
         <v>5102000000.0</v>
       </c>
-      <c r="AE22" s="0" t="n">
+      <c r="AF22" s="0" t="n">
         <v>4797000000.0</v>
       </c>
-      <c r="AF22" s="0" t="n">
+      <c r="AG22" s="0" t="n">
         <v>4918000000.0</v>
       </c>
-      <c r="AG22" s="0" t="n">
+      <c r="AH22" s="0" t="n">
         <v>5003000000.0</v>
       </c>
-      <c r="AH22" s="0" t="n">
+      <c r="AI22" s="0" t="n">
         <v>4676000000.0</v>
       </c>
-      <c r="AI22" s="0" t="n">
+      <c r="AJ22" s="0" t="n">
         <v>4186000000.0</v>
       </c>
-      <c r="AJ22" s="0" t="n">
+      <c r="AK22" s="0" t="n">
         <v>4351000000.0</v>
       </c>
-      <c r="AK22" s="0" t="n">
+      <c r="AL22" s="0" t="n">
         <v>4212000000.0</v>
       </c>
-      <c r="AL22" s="0" t="n">
+      <c r="AM22" s="0" t="n">
         <v>4337000000.0</v>
       </c>
-      <c r="AM22" s="0" t="n">
+      <c r="AN22" s="0" t="n">
         <v>4764000000.0</v>
       </c>
-      <c r="AN22" s="0" t="n">
+      <c r="AO22" s="0" t="n">
         <v>4259000000.0</v>
       </c>
     </row>
@@ -2924,120 +3005,123 @@
         </is>
       </c>
       <c r="B23" s="0" t="n">
+        <v>7.02</v>
+      </c>
+      <c r="C23" s="0" t="n">
         <v>4.25</v>
       </c>
-      <c r="C23" s="0" t="n">
+      <c r="D23" s="0" t="n">
         <v>3.53</v>
       </c>
-      <c r="D23" s="0" t="n">
+      <c r="E23" s="0" t="n">
         <v>6.06</v>
       </c>
-      <c r="E23" s="0" t="n">
+      <c r="F23" s="0" t="n">
         <v>7.83</v>
       </c>
-      <c r="F23" s="0" t="n">
+      <c r="G23" s="0" t="n">
         <v>9.6</v>
       </c>
-      <c r="G23" s="0" t="n">
+      <c r="H23" s="0" t="n">
         <v>9.6035</v>
       </c>
-      <c r="H23" s="0" t="n">
+      <c r="I23" s="0" t="n">
         <v>9.5935</v>
       </c>
-      <c r="I23" s="0" t="n">
+      <c r="J23" s="0" t="n">
         <v>11.1035</v>
       </c>
-      <c r="J23" s="0" t="n">
+      <c r="K23" s="0" t="n">
         <v>12.03</v>
       </c>
-      <c r="K23" s="0" t="n">
+      <c r="L23" s="0" t="n">
         <v>14.9765</v>
       </c>
-      <c r="L23" s="0" t="n">
+      <c r="M23" s="0" t="n">
         <v>14.7965</v>
       </c>
-      <c r="M23" s="0" t="n">
+      <c r="N23" s="0" t="n">
         <v>13.3965</v>
       </c>
-      <c r="N23" s="0" t="n">
+      <c r="O23" s="0" t="n">
         <v>12.28</v>
       </c>
-      <c r="O23" s="0" t="n">
+      <c r="P23" s="0" t="n">
         <v>9.4</v>
       </c>
-      <c r="P23" s="0" t="n">
+      <c r="Q23" s="0" t="n">
         <v>9.04</v>
       </c>
-      <c r="Q23" s="0" t="n">
+      <c r="R23" s="0" t="n">
         <v>8.78</v>
       </c>
-      <c r="R23" s="0" t="n">
+      <c r="S23" s="0" t="n">
         <v>9.15</v>
       </c>
-      <c r="S23" s="0" t="n">
+      <c r="T23" s="0" t="n">
         <v>9.06</v>
       </c>
-      <c r="T23" s="0" t="n">
+      <c r="U23" s="0" t="n">
         <v>9.3</v>
       </c>
-      <c r="U23" s="0" t="n">
+      <c r="V23" s="0" t="n">
         <v>9.55</v>
       </c>
-      <c r="V23" s="0" t="n">
+      <c r="W23" s="0" t="n">
         <v>9.6</v>
       </c>
-      <c r="W23" s="0" t="n">
+      <c r="X23" s="0" t="n">
         <v>9.38</v>
       </c>
-      <c r="X23" s="0" t="n">
+      <c r="Y23" s="0" t="n">
         <v>9.29</v>
       </c>
-      <c r="Y23" s="0" t="n">
+      <c r="Z23" s="0" t="n">
         <v>8.7</v>
       </c>
-      <c r="Z23" s="0" t="n">
+      <c r="AA23" s="0" t="n">
         <v>8.0</v>
       </c>
-      <c r="AA23" s="0" t="n">
+      <c r="AB23" s="0" t="n">
         <v>8.49</v>
       </c>
-      <c r="AB23" s="0" t="n">
+      <c r="AC23" s="0" t="n">
         <v>7.54</v>
       </c>
-      <c r="AC23" s="0" t="n">
+      <c r="AD23" s="0" t="n">
         <v>6.92</v>
       </c>
-      <c r="AD23" s="0" t="n">
+      <c r="AE23" s="0" t="n">
         <v>6.76</v>
       </c>
-      <c r="AE23" s="0" t="n">
+      <c r="AF23" s="0" t="n">
         <v>5.8</v>
       </c>
-      <c r="AF23" s="0" t="n">
+      <c r="AG23" s="0" t="n">
         <v>5.76</v>
       </c>
-      <c r="AG23" s="0" t="n">
+      <c r="AH23" s="0" t="n">
         <v>5.49</v>
       </c>
-      <c r="AH23" s="0" t="n">
+      <c r="AI23" s="0" t="n">
         <v>4.96</v>
       </c>
-      <c r="AI23" s="0" t="n">
+      <c r="AJ23" s="0" t="n">
         <v>3.9901</v>
       </c>
-      <c r="AJ23" s="0" t="n">
+      <c r="AK23" s="0" t="n">
         <v>4.0601</v>
       </c>
-      <c r="AK23" s="0" t="n">
+      <c r="AL23" s="0" t="n">
         <v>4.1901</v>
       </c>
-      <c r="AL23" s="0" t="n">
+      <c r="AM23" s="0" t="n">
         <v>4.32</v>
       </c>
-      <c r="AM23" s="0" t="n">
+      <c r="AN23" s="0" t="n">
         <v>5.0728</v>
       </c>
-      <c r="AN23" s="0" t="n">
+      <c r="AO23" s="0" t="n">
         <v>4.3608</v>
       </c>
     </row>
@@ -3048,78 +3132,78 @@
         </is>
       </c>
       <c r="B24" s="0" t="n">
+        <v>-0.023</v>
+      </c>
+      <c r="C24" s="0" t="n">
+        <v>-0.013</v>
+      </c>
+      <c r="D24" s="0" t="n">
         <v>-0.01</v>
       </c>
-      <c r="C24" s="0" t="n">
-        <v>-0.007</v>
-      </c>
-      <c r="D24" s="0" t="n">
-        <v>-0.017</v>
-      </c>
       <c r="E24" s="0" t="n">
-        <v>-0.0344</v>
-      </c>
-      <c r="F24" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="G24" s="0" t="n">
+        <v>-0.02</v>
+      </c>
+      <c r="F24" s="0" t="n">
         <v>-0.0374</v>
       </c>
+      <c r="G24" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
       <c r="H24" s="0" t="n">
+        <v>-0.0374</v>
+      </c>
+      <c r="I24" s="0" t="n">
         <v>-0.03</v>
       </c>
-      <c r="I24" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="J24" s="0" t="n">
+      <c r="J24" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="K24" s="0" t="n">
         <v>-0.04</v>
       </c>
-      <c r="K24" s="0" t="n">
+      <c r="L24" s="0" t="n">
         <v>-0.0226</v>
       </c>
-      <c r="L24" s="0" t="n">
+      <c r="M24" s="0" t="n">
         <v>-0.0326</v>
       </c>
-      <c r="M24" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="N24" s="0" t="n">
+      <c r="N24" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="O24" s="0" t="n">
         <v>-0.05</v>
       </c>
-      <c r="O24" s="0" t="n">
+      <c r="P24" s="0" t="n">
         <v>-0.04</v>
       </c>
-      <c r="P24" s="0" t="n">
+      <c r="Q24" s="0" t="n">
         <v>-0.05</v>
       </c>
-      <c r="Q24" s="0" t="n">
+      <c r="R24" s="0" t="n">
         <v>-0.04</v>
-      </c>
-      <c r="R24" s="0" t="n">
-        <v>-0.02</v>
       </c>
       <c r="S24" s="0" t="n">
         <v>-0.02</v>
       </c>
       <c r="T24" s="0" t="n">
+        <v>-0.02</v>
+      </c>
+      <c r="U24" s="0" t="n">
         <v>0.0</v>
       </c>
-      <c r="U24" s="0" t="n">
+      <c r="V24" s="0" t="n">
         <v>-0.01</v>
       </c>
-      <c r="V24" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="W24" s="0" t="n">
-        <v>-0.0218</v>
+      <c r="W24" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
       </c>
       <c r="X24" s="0" t="n">
         <v>-0.0218</v>
@@ -3128,24 +3212,24 @@
         <v>-0.0218</v>
       </c>
       <c r="Z24" s="0" t="n">
+        <v>-0.0218</v>
+      </c>
+      <c r="AA24" s="0" t="n">
         <v>-0.01</v>
       </c>
-      <c r="AA24" s="0" t="n">
+      <c r="AB24" s="0" t="n">
         <v>-0.0082</v>
       </c>
-      <c r="AB24" s="0" t="n">
+      <c r="AC24" s="0" t="n">
         <v>0.0118</v>
       </c>
-      <c r="AC24" s="0" t="n">
+      <c r="AD24" s="0" t="n">
         <v>-0.0082</v>
       </c>
-      <c r="AD24" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AE24" s="0" t="n">
-        <v>-0.05</v>
+      <c r="AE24" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
       </c>
       <c r="AF24" s="0" t="n">
         <v>-0.05</v>
@@ -3154,30 +3238,33 @@
         <v>-0.05</v>
       </c>
       <c r="AH24" s="0" t="n">
+        <v>-0.05</v>
+      </c>
+      <c r="AI24" s="0" t="n">
         <v>-0.51</v>
       </c>
-      <c r="AI24" s="0" t="n">
+      <c r="AJ24" s="0" t="n">
         <v>-0.5</v>
       </c>
-      <c r="AJ24" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AK24" s="0" t="n">
+      <c r="AK24" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AL24" s="0" t="n">
         <v>-0.57</v>
       </c>
-      <c r="AL24" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
       <c r="AM24" s="0" t="inlineStr">
         <is>
           <t/>
         </is>
       </c>
       <c r="AN24" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AO24" s="0" t="inlineStr">
         <is>
           <t/>
         </is>
@@ -3190,120 +3277,123 @@
         </is>
       </c>
       <c r="B25" s="0" t="n">
+        <v>7.0449</v>
+      </c>
+      <c r="C25" s="0" t="n">
         <v>4.2724</v>
       </c>
-      <c r="C25" s="0" t="n">
+      <c r="D25" s="0" t="n">
         <v>3.5652</v>
       </c>
-      <c r="D25" s="0" t="n">
+      <c r="E25" s="0" t="n">
         <v>6.0874</v>
       </c>
-      <c r="E25" s="0" t="n">
+      <c r="F25" s="0" t="n">
         <v>7.8581</v>
       </c>
-      <c r="F25" s="0" t="n">
+      <c r="G25" s="0" t="n">
         <v>9.6232</v>
       </c>
-      <c r="G25" s="0" t="n">
+      <c r="H25" s="0" t="n">
         <v>9.6113</v>
       </c>
-      <c r="H25" s="0" t="n">
+      <c r="I25" s="0" t="n">
         <v>9.609</v>
       </c>
-      <c r="I25" s="0" t="n">
+      <c r="J25" s="0" t="n">
         <v>11.1284</v>
       </c>
-      <c r="J25" s="0" t="n">
+      <c r="K25" s="0" t="n">
         <v>12.0566</v>
       </c>
-      <c r="K25" s="0" t="n">
+      <c r="L25" s="0" t="n">
         <v>15.0005</v>
       </c>
-      <c r="L25" s="0" t="n">
+      <c r="M25" s="0" t="n">
         <v>14.8127</v>
       </c>
-      <c r="M25" s="0" t="n">
+      <c r="N25" s="0" t="n">
         <v>13.4005</v>
       </c>
-      <c r="N25" s="0" t="n">
+      <c r="O25" s="0" t="n">
         <v>12.2538</v>
       </c>
-      <c r="O25" s="0" t="n">
+      <c r="P25" s="0" t="n">
         <v>9.3672</v>
       </c>
-      <c r="P25" s="0" t="n">
+      <c r="Q25" s="0" t="n">
         <v>9.0013</v>
       </c>
-      <c r="Q25" s="0" t="n">
+      <c r="R25" s="0" t="n">
         <v>8.7564</v>
       </c>
-      <c r="R25" s="0" t="n">
+      <c r="S25" s="0" t="n">
         <v>9.1575</v>
       </c>
-      <c r="S25" s="0" t="n">
+      <c r="T25" s="0" t="n">
         <v>9.0681</v>
       </c>
-      <c r="T25" s="0" t="n">
+      <c r="U25" s="0" t="n">
         <v>9.3277</v>
       </c>
-      <c r="U25" s="0" t="n">
+      <c r="V25" s="0" t="n">
         <v>9.5703</v>
       </c>
-      <c r="V25" s="0" t="n">
+      <c r="W25" s="0" t="n">
         <v>9.6216</v>
       </c>
-      <c r="W25" s="0" t="n">
+      <c r="X25" s="0" t="n">
         <v>9.4058</v>
       </c>
-      <c r="X25" s="0" t="n">
+      <c r="Y25" s="0" t="n">
         <v>9.3082</v>
       </c>
-      <c r="Y25" s="0" t="n">
+      <c r="Z25" s="0" t="n">
         <v>8.7411</v>
       </c>
-      <c r="Z25" s="0" t="n">
+      <c r="AA25" s="0" t="n">
         <v>8.0463</v>
       </c>
-      <c r="AA25" s="0" t="n">
+      <c r="AB25" s="0" t="n">
         <v>8.5663</v>
       </c>
-      <c r="AB25" s="0" t="n">
+      <c r="AC25" s="0" t="n">
         <v>7.6083</v>
       </c>
-      <c r="AC25" s="0" t="n">
+      <c r="AD25" s="0" t="n">
         <v>6.9747</v>
       </c>
-      <c r="AD25" s="0" t="n">
+      <c r="AE25" s="0" t="n">
         <v>6.8073</v>
       </c>
-      <c r="AE25" s="0" t="n">
+      <c r="AF25" s="0" t="n">
         <v>5.7798</v>
       </c>
-      <c r="AF25" s="0" t="n">
+      <c r="AG25" s="0" t="n">
         <v>5.7412</v>
       </c>
-      <c r="AG25" s="0" t="n">
+      <c r="AH25" s="0" t="n">
         <v>5.4665</v>
       </c>
-      <c r="AH25" s="0" t="n">
+      <c r="AI25" s="0" t="n">
         <v>4.9458</v>
       </c>
-      <c r="AI25" s="0" t="n">
+      <c r="AJ25" s="0" t="n">
         <v>3.473</v>
       </c>
-      <c r="AJ25" s="0" t="n">
+      <c r="AK25" s="0" t="n">
         <v>3.5703</v>
       </c>
-      <c r="AK25" s="0" t="n">
+      <c r="AL25" s="0" t="n">
         <v>3.6487</v>
       </c>
-      <c r="AL25" s="0" t="n">
+      <c r="AM25" s="0" t="n">
         <v>3.7676</v>
       </c>
-      <c r="AM25" s="0" t="n">
+      <c r="AN25" s="0" t="n">
         <v>5.5273</v>
       </c>
-      <c r="AN25" s="0" t="n">
+      <c r="AO25" s="0" t="n">
         <v>4.7851</v>
       </c>
     </row>
@@ -3314,78 +3404,78 @@
         </is>
       </c>
       <c r="B26" s="0" t="n">
+        <v>-0.023</v>
+      </c>
+      <c r="C26" s="0" t="n">
+        <v>-0.013</v>
+      </c>
+      <c r="D26" s="0" t="n">
         <v>-0.01</v>
       </c>
-      <c r="C26" s="0" t="n">
-        <v>-0.007</v>
-      </c>
-      <c r="D26" s="0" t="n">
-        <v>-0.017</v>
-      </c>
       <c r="E26" s="0" t="n">
-        <v>-0.0344</v>
-      </c>
-      <c r="F26" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="G26" s="0" t="n">
+        <v>-0.02</v>
+      </c>
+      <c r="F26" s="0" t="n">
         <v>-0.0374</v>
       </c>
+      <c r="G26" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
       <c r="H26" s="0" t="n">
+        <v>-0.0374</v>
+      </c>
+      <c r="I26" s="0" t="n">
         <v>-0.03</v>
       </c>
-      <c r="I26" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="J26" s="0" t="n">
+      <c r="J26" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="K26" s="0" t="n">
         <v>-0.04</v>
       </c>
-      <c r="K26" s="0" t="n">
+      <c r="L26" s="0" t="n">
         <v>-0.0226</v>
       </c>
-      <c r="L26" s="0" t="n">
+      <c r="M26" s="0" t="n">
         <v>-0.0326</v>
       </c>
-      <c r="M26" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="N26" s="0" t="n">
+      <c r="N26" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="O26" s="0" t="n">
         <v>-0.05</v>
       </c>
-      <c r="O26" s="0" t="n">
+      <c r="P26" s="0" t="n">
         <v>-0.04</v>
       </c>
-      <c r="P26" s="0" t="n">
+      <c r="Q26" s="0" t="n">
         <v>-0.05</v>
       </c>
-      <c r="Q26" s="0" t="n">
+      <c r="R26" s="0" t="n">
         <v>-0.04</v>
-      </c>
-      <c r="R26" s="0" t="n">
-        <v>-0.02</v>
       </c>
       <c r="S26" s="0" t="n">
         <v>-0.02</v>
       </c>
       <c r="T26" s="0" t="n">
+        <v>-0.02</v>
+      </c>
+      <c r="U26" s="0" t="n">
         <v>0.0</v>
       </c>
-      <c r="U26" s="0" t="n">
+      <c r="V26" s="0" t="n">
         <v>-0.01</v>
       </c>
-      <c r="V26" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="W26" s="0" t="n">
-        <v>-0.0218</v>
+      <c r="W26" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
       </c>
       <c r="X26" s="0" t="n">
         <v>-0.0218</v>
@@ -3394,24 +3484,24 @@
         <v>-0.0218</v>
       </c>
       <c r="Z26" s="0" t="n">
+        <v>-0.0218</v>
+      </c>
+      <c r="AA26" s="0" t="n">
         <v>-0.01</v>
       </c>
-      <c r="AA26" s="0" t="n">
+      <c r="AB26" s="0" t="n">
         <v>-0.0082</v>
       </c>
-      <c r="AB26" s="0" t="n">
+      <c r="AC26" s="0" t="n">
         <v>0.0118</v>
       </c>
-      <c r="AC26" s="0" t="n">
+      <c r="AD26" s="0" t="n">
         <v>-0.0082</v>
       </c>
-      <c r="AD26" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AE26" s="0" t="n">
-        <v>-0.05</v>
+      <c r="AE26" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
       </c>
       <c r="AF26" s="0" t="n">
         <v>-0.05</v>
@@ -3420,30 +3510,33 @@
         <v>-0.05</v>
       </c>
       <c r="AH26" s="0" t="n">
+        <v>-0.05</v>
+      </c>
+      <c r="AI26" s="0" t="n">
         <v>-0.51</v>
       </c>
-      <c r="AI26" s="0" t="n">
+      <c r="AJ26" s="0" t="n">
         <v>-0.5</v>
       </c>
-      <c r="AJ26" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AK26" s="0" t="n">
+      <c r="AK26" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AL26" s="0" t="n">
         <v>-0.57</v>
       </c>
-      <c r="AL26" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
       <c r="AM26" s="0" t="inlineStr">
         <is>
           <t/>
         </is>
       </c>
       <c r="AN26" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AO26" s="0" t="inlineStr">
         <is>
           <t/>
         </is>
@@ -3456,120 +3549,123 @@
         </is>
       </c>
       <c r="B27" s="0" t="n">
+        <v>7.03</v>
+      </c>
+      <c r="C27" s="0" t="n">
         <v>4.25</v>
       </c>
-      <c r="C27" s="0" t="n">
+      <c r="D27" s="0" t="n">
         <v>3.54</v>
       </c>
-      <c r="D27" s="0" t="n">
+      <c r="E27" s="0" t="n">
         <v>6.07</v>
       </c>
-      <c r="E27" s="0" t="n">
+      <c r="F27" s="0" t="n">
         <v>7.84</v>
       </c>
-      <c r="F27" s="0" t="n">
+      <c r="G27" s="0" t="n">
         <v>9.61</v>
-      </c>
-      <c r="G27" s="0" t="n">
-        <v>9.6056</v>
       </c>
       <c r="H27" s="0" t="n">
         <v>9.6056</v>
       </c>
       <c r="I27" s="0" t="n">
+        <v>9.6056</v>
+      </c>
+      <c r="J27" s="0" t="n">
         <v>11.1256</v>
       </c>
-      <c r="J27" s="0" t="n">
+      <c r="K27" s="0" t="n">
         <v>12.06</v>
       </c>
-      <c r="K27" s="0" t="n">
+      <c r="L27" s="0" t="n">
         <v>14.9944</v>
       </c>
-      <c r="L27" s="0" t="n">
+      <c r="M27" s="0" t="n">
         <v>14.8044</v>
       </c>
-      <c r="M27" s="0" t="n">
+      <c r="N27" s="0" t="n">
         <v>13.4044</v>
       </c>
-      <c r="N27" s="0" t="n">
+      <c r="O27" s="0" t="n">
         <v>12.28</v>
       </c>
-      <c r="O27" s="0" t="n">
+      <c r="P27" s="0" t="n">
         <v>9.41</v>
       </c>
-      <c r="P27" s="0" t="n">
+      <c r="Q27" s="0" t="n">
         <v>9.05</v>
       </c>
-      <c r="Q27" s="0" t="n">
+      <c r="R27" s="0" t="n">
         <v>8.79</v>
       </c>
-      <c r="R27" s="0" t="n">
+      <c r="S27" s="0" t="n">
         <v>9.17</v>
       </c>
-      <c r="S27" s="0" t="n">
+      <c r="T27" s="0" t="n">
         <v>9.08</v>
       </c>
-      <c r="T27" s="0" t="n">
+      <c r="U27" s="0" t="n">
         <v>9.34</v>
       </c>
-      <c r="U27" s="0" t="n">
+      <c r="V27" s="0" t="n">
         <v>9.58</v>
       </c>
-      <c r="V27" s="0" t="n">
+      <c r="W27" s="0" t="n">
         <v>9.63</v>
       </c>
-      <c r="W27" s="0" t="n">
+      <c r="X27" s="0" t="n">
         <v>9.41</v>
       </c>
-      <c r="X27" s="0" t="n">
+      <c r="Y27" s="0" t="n">
         <v>9.31</v>
       </c>
-      <c r="Y27" s="0" t="n">
+      <c r="Z27" s="0" t="n">
         <v>8.74</v>
       </c>
-      <c r="Z27" s="0" t="n">
+      <c r="AA27" s="0" t="n">
         <v>8.04</v>
       </c>
-      <c r="AA27" s="0" t="n">
+      <c r="AB27" s="0" t="n">
         <v>8.55</v>
       </c>
-      <c r="AB27" s="0" t="n">
+      <c r="AC27" s="0" t="n">
         <v>7.6</v>
       </c>
-      <c r="AC27" s="0" t="n">
+      <c r="AD27" s="0" t="n">
         <v>6.97</v>
       </c>
-      <c r="AD27" s="0" t="n">
+      <c r="AE27" s="0" t="n">
         <v>6.81</v>
       </c>
-      <c r="AE27" s="0" t="n">
+      <c r="AF27" s="0" t="n">
         <v>5.86</v>
       </c>
-      <c r="AF27" s="0" t="n">
+      <c r="AG27" s="0" t="n">
         <v>5.82</v>
       </c>
-      <c r="AG27" s="0" t="n">
+      <c r="AH27" s="0" t="n">
         <v>5.55</v>
       </c>
-      <c r="AH27" s="0" t="n">
+      <c r="AI27" s="0" t="n">
         <v>5.01</v>
       </c>
-      <c r="AI27" s="0" t="n">
+      <c r="AJ27" s="0" t="n">
         <v>3.9439</v>
       </c>
-      <c r="AJ27" s="0" t="n">
+      <c r="AK27" s="0" t="n">
         <v>4.0539</v>
       </c>
-      <c r="AK27" s="0" t="n">
+      <c r="AL27" s="0" t="n">
         <v>4.2039</v>
       </c>
-      <c r="AL27" s="0" t="n">
+      <c r="AM27" s="0" t="n">
         <v>4.34</v>
       </c>
-      <c r="AM27" s="0" t="n">
+      <c r="AN27" s="0" t="n">
         <v>5.159</v>
       </c>
-      <c r="AN27" s="0" t="n">
+      <c r="AO27" s="0" t="n">
         <v>4.397</v>
       </c>
     </row>
@@ -3580,120 +3676,123 @@
         </is>
       </c>
       <c r="B28" s="0" t="n">
+        <v>2358000000.0</v>
+      </c>
+      <c r="C28" s="0" t="n">
         <v>1429000000.0</v>
       </c>
-      <c r="C28" s="0" t="n">
+      <c r="D28" s="0" t="n">
         <v>1184000000.0</v>
       </c>
-      <c r="D28" s="0" t="n">
+      <c r="E28" s="0" t="n">
         <v>2039000000.0</v>
       </c>
-      <c r="E28" s="0" t="n">
+      <c r="F28" s="0" t="n">
         <v>2730000000.0</v>
       </c>
-      <c r="F28" s="0" t="n">
+      <c r="G28" s="0" t="n">
         <v>3404000000.0</v>
       </c>
-      <c r="G28" s="0" t="n">
+      <c r="H28" s="0" t="n">
         <v>3489000000.0</v>
       </c>
-      <c r="H28" s="0" t="n">
+      <c r="I28" s="0" t="n">
         <v>3635000000.0</v>
       </c>
-      <c r="I28" s="0" t="n">
+      <c r="J28" s="0" t="n">
         <v>4284000000.0</v>
       </c>
-      <c r="J28" s="0" t="n">
+      <c r="K28" s="0" t="n">
         <v>4698000000.0</v>
       </c>
-      <c r="K28" s="0" t="n">
+      <c r="L28" s="0" t="n">
         <v>5899000000.0</v>
       </c>
-      <c r="L28" s="0" t="n">
+      <c r="M28" s="0" t="n">
         <v>5842000000.0</v>
       </c>
-      <c r="M28" s="0" t="n">
+      <c r="N28" s="0" t="n">
         <v>5321000000.0</v>
       </c>
-      <c r="N28" s="0" t="n">
+      <c r="O28" s="0" t="n">
         <v>4895000000.0</v>
       </c>
-      <c r="O28" s="0" t="n">
+      <c r="P28" s="0" t="n">
         <v>3767000000.0</v>
       </c>
-      <c r="P28" s="0" t="n">
+      <c r="Q28" s="0" t="n">
         <v>3664000000.0</v>
       </c>
-      <c r="Q28" s="0" t="n">
+      <c r="R28" s="0" t="n">
         <v>3622000000.0</v>
       </c>
-      <c r="R28" s="0" t="n">
+      <c r="S28" s="0" t="n">
         <v>3847000000.0</v>
       </c>
-      <c r="S28" s="0" t="n">
+      <c r="T28" s="0" t="n">
         <v>3874000000.0</v>
       </c>
-      <c r="T28" s="0" t="n">
+      <c r="U28" s="0" t="n">
         <v>4108000000.0</v>
       </c>
-      <c r="U28" s="0" t="n">
+      <c r="V28" s="0" t="n">
         <v>4342000000.0</v>
       </c>
-      <c r="V28" s="0" t="n">
+      <c r="W28" s="0" t="n">
         <v>4479000000.0</v>
       </c>
-      <c r="W28" s="0" t="n">
+      <c r="X28" s="0" t="n">
         <v>4478000000.0</v>
       </c>
-      <c r="X28" s="0" t="n">
+      <c r="Y28" s="0" t="n">
         <v>4549000000.0</v>
       </c>
-      <c r="Y28" s="0" t="n">
+      <c r="Z28" s="0" t="n">
         <v>4396000000.0</v>
       </c>
-      <c r="Z28" s="0" t="n">
+      <c r="AA28" s="0" t="n">
         <v>4172000000.0</v>
       </c>
-      <c r="AA28" s="0" t="n">
+      <c r="AB28" s="0" t="n">
         <v>4553000000.0</v>
       </c>
-      <c r="AB28" s="0" t="n">
+      <c r="AC28" s="0" t="n">
         <v>4147000000.0</v>
       </c>
-      <c r="AC28" s="0" t="n">
+      <c r="AD28" s="0" t="n">
         <v>3897000000.0</v>
       </c>
-      <c r="AD28" s="0" t="n">
+      <c r="AE28" s="0" t="n">
         <v>3860000000.0</v>
       </c>
-      <c r="AE28" s="0" t="n">
+      <c r="AF28" s="0" t="n">
         <v>3328000000.0</v>
       </c>
-      <c r="AF28" s="0" t="n">
+      <c r="AG28" s="0" t="n">
         <v>3325000000.0</v>
       </c>
-      <c r="AG28" s="0" t="n">
+      <c r="AH28" s="0" t="n">
         <v>3170000000.0</v>
       </c>
-      <c r="AH28" s="0" t="n">
+      <c r="AI28" s="0" t="n">
         <v>2858000000.0</v>
       </c>
-      <c r="AI28" s="0" t="n">
+      <c r="AJ28" s="0" t="n">
         <v>2262000000.0</v>
       </c>
-      <c r="AJ28" s="0" t="n">
+      <c r="AK28" s="0" t="n">
         <v>2323000000.0</v>
       </c>
-      <c r="AK28" s="0" t="n">
+      <c r="AL28" s="0" t="n">
         <v>2406000000.0</v>
       </c>
-      <c r="AL28" s="0" t="n">
+      <c r="AM28" s="0" t="n">
         <v>2472000000.0</v>
       </c>
-      <c r="AM28" s="0" t="n">
+      <c r="AN28" s="0" t="n">
         <v>2928000000.0</v>
       </c>
-      <c r="AN28" s="0" t="n">
+      <c r="AO28" s="0" t="n">
         <v>2483000000.0</v>
       </c>
     </row>
@@ -3704,76 +3803,76 @@
         </is>
       </c>
       <c r="B29" s="0" t="n">
+        <v>-5000000.0</v>
+      </c>
+      <c r="C29" s="0" t="n">
         <v>-2000000.0</v>
       </c>
-      <c r="C29" s="0" t="n">
+      <c r="D29" s="0" t="n">
         <v>-4000000.0</v>
       </c>
-      <c r="D29" s="0" t="n">
+      <c r="E29" s="0" t="n">
         <v>-7000000.0</v>
       </c>
-      <c r="E29" s="0" t="n">
+      <c r="F29" s="0" t="n">
         <v>-11000000.0</v>
       </c>
-      <c r="F29" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="G29" s="0" t="n">
+      <c r="G29" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="H29" s="0" t="n">
         <v>-14000000.0</v>
       </c>
-      <c r="H29" s="0" t="n">
+      <c r="I29" s="0" t="n">
         <v>-11000000.0</v>
       </c>
-      <c r="I29" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="J29" s="0" t="n">
+      <c r="J29" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="K29" s="0" t="n">
         <v>-12000000.0</v>
       </c>
-      <c r="K29" s="0" t="n">
+      <c r="L29" s="0" t="n">
         <v>-9000000.0</v>
       </c>
-      <c r="L29" s="0" t="n">
+      <c r="M29" s="0" t="n">
         <v>-11000000.0</v>
       </c>
-      <c r="M29" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="N29" s="0" t="n">
+      <c r="N29" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="O29" s="0" t="n">
         <v>-18000000.0</v>
-      </c>
-      <c r="O29" s="0" t="n">
-        <v>-21000000.0</v>
       </c>
       <c r="P29" s="0" t="n">
         <v>-21000000.0</v>
       </c>
       <c r="Q29" s="0" t="n">
+        <v>-21000000.0</v>
+      </c>
+      <c r="R29" s="0" t="n">
         <v>-18000000.0</v>
       </c>
-      <c r="R29" s="0" t="n">
+      <c r="S29" s="0" t="n">
         <v>-10000000.0</v>
       </c>
-      <c r="S29" s="0" t="n">
+      <c r="T29" s="0" t="n">
         <v>-5000000.0</v>
       </c>
-      <c r="T29" s="0" t="n">
+      <c r="U29" s="0" t="n">
         <v>-6000000.0</v>
       </c>
-      <c r="U29" s="0" t="n">
+      <c r="V29" s="0" t="n">
         <v>-2000000.0</v>
       </c>
-      <c r="V29" s="0" t="n">
+      <c r="W29" s="0" t="n">
         <v>-5000000.0</v>
-      </c>
-      <c r="W29" s="0" t="n">
-        <v>-8000000.0</v>
       </c>
       <c r="X29" s="0" t="n">
         <v>-8000000.0</v>
@@ -3782,54 +3881,57 @@
         <v>-8000000.0</v>
       </c>
       <c r="Z29" s="0" t="n">
+        <v>-8000000.0</v>
+      </c>
+      <c r="AA29" s="0" t="n">
         <v>-4000000.0</v>
-      </c>
-      <c r="AA29" s="0" t="n">
-        <v>-1000000.0</v>
       </c>
       <c r="AB29" s="0" t="n">
         <v>-1000000.0</v>
       </c>
       <c r="AC29" s="0" t="n">
+        <v>-1000000.0</v>
+      </c>
+      <c r="AD29" s="0" t="n">
         <v>0.0</v>
       </c>
-      <c r="AD29" s="0" t="n">
+      <c r="AE29" s="0" t="n">
         <v>-7000000.0</v>
       </c>
-      <c r="AE29" s="0" t="n">
+      <c r="AF29" s="0" t="n">
         <v>-27000000.0</v>
       </c>
-      <c r="AF29" s="0" t="n">
+      <c r="AG29" s="0" t="n">
         <v>-31000000.0</v>
       </c>
-      <c r="AG29" s="0" t="n">
+      <c r="AH29" s="0" t="n">
         <v>-30000000.0</v>
       </c>
-      <c r="AH29" s="0" t="n">
+      <c r="AI29" s="0" t="n">
         <v>-291000000.0</v>
       </c>
-      <c r="AI29" s="0" t="n">
+      <c r="AJ29" s="0" t="n">
         <v>-286000000.0</v>
       </c>
-      <c r="AJ29" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AK29" s="0" t="n">
+      <c r="AK29" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AL29" s="0" t="n">
         <v>-327000000.0</v>
       </c>
-      <c r="AL29" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
       <c r="AM29" s="0" t="inlineStr">
         <is>
           <t/>
         </is>
       </c>
       <c r="AN29" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AO29" s="0" t="inlineStr">
         <is>
           <t/>
         </is>
@@ -3842,120 +3944,123 @@
         </is>
       </c>
       <c r="B30" s="0" t="n">
+        <v>2353000000.0</v>
+      </c>
+      <c r="C30" s="0" t="n">
         <v>1426000000.0</v>
       </c>
-      <c r="C30" s="0" t="n">
+      <c r="D30" s="0" t="n">
         <v>1181000000.0</v>
       </c>
-      <c r="D30" s="0" t="n">
+      <c r="E30" s="0" t="n">
         <v>2033000000.0</v>
       </c>
-      <c r="E30" s="0" t="n">
+      <c r="F30" s="0" t="n">
         <v>2722000000.0</v>
       </c>
-      <c r="F30" s="0" t="n">
+      <c r="G30" s="0" t="n">
         <v>3396000000.0</v>
       </c>
-      <c r="G30" s="0" t="n">
+      <c r="H30" s="0" t="n">
         <v>3477000000.0</v>
       </c>
-      <c r="H30" s="0" t="n">
+      <c r="I30" s="0" t="n">
         <v>3625000000.0</v>
       </c>
-      <c r="I30" s="0" t="n">
+      <c r="J30" s="0" t="n">
         <v>4276000000.0</v>
       </c>
-      <c r="J30" s="0" t="n">
+      <c r="K30" s="0" t="n">
         <v>4690000000.0</v>
       </c>
-      <c r="K30" s="0" t="n">
+      <c r="L30" s="0" t="n">
         <v>5892000000.0</v>
       </c>
-      <c r="L30" s="0" t="n">
+      <c r="M30" s="0" t="n">
         <v>5835000000.0</v>
       </c>
-      <c r="M30" s="0" t="n">
+      <c r="N30" s="0" t="n">
         <v>5311000000.0</v>
       </c>
-      <c r="N30" s="0" t="n">
+      <c r="O30" s="0" t="n">
         <v>4877000000.0</v>
       </c>
-      <c r="O30" s="0" t="n">
+      <c r="P30" s="0" t="n">
         <v>3746000000.0</v>
       </c>
-      <c r="P30" s="0" t="n">
+      <c r="Q30" s="0" t="n">
         <v>3643000000.0</v>
       </c>
-      <c r="Q30" s="0" t="n">
+      <c r="R30" s="0" t="n">
         <v>3604000000.0</v>
       </c>
-      <c r="R30" s="0" t="n">
+      <c r="S30" s="0" t="n">
         <v>3837000000.0</v>
       </c>
-      <c r="S30" s="0" t="n">
+      <c r="T30" s="0" t="n">
         <v>3869000000.0</v>
       </c>
-      <c r="T30" s="0" t="n">
+      <c r="U30" s="0" t="n">
         <v>4102000000.0</v>
       </c>
-      <c r="U30" s="0" t="n">
+      <c r="V30" s="0" t="n">
         <v>4340000000.0</v>
       </c>
-      <c r="V30" s="0" t="n">
+      <c r="W30" s="0" t="n">
         <v>4474000000.0</v>
       </c>
-      <c r="W30" s="0" t="n">
+      <c r="X30" s="0" t="n">
         <v>4470000000.0</v>
       </c>
-      <c r="X30" s="0" t="n">
+      <c r="Y30" s="0" t="n">
         <v>4541000000.0</v>
       </c>
-      <c r="Y30" s="0" t="n">
+      <c r="Z30" s="0" t="n">
         <v>4388000000.0</v>
       </c>
-      <c r="Z30" s="0" t="n">
+      <c r="AA30" s="0" t="n">
         <v>4168000000.0</v>
       </c>
-      <c r="AA30" s="0" t="n">
+      <c r="AB30" s="0" t="n">
         <v>4552000000.0</v>
       </c>
-      <c r="AB30" s="0" t="n">
+      <c r="AC30" s="0" t="n">
         <v>4146000000.0</v>
       </c>
-      <c r="AC30" s="0" t="n">
+      <c r="AD30" s="0" t="n">
         <v>3897000000.0</v>
       </c>
-      <c r="AD30" s="0" t="n">
+      <c r="AE30" s="0" t="n">
         <v>3853000000.0</v>
       </c>
-      <c r="AE30" s="0" t="n">
+      <c r="AF30" s="0" t="n">
         <v>3301000000.0</v>
       </c>
-      <c r="AF30" s="0" t="n">
+      <c r="AG30" s="0" t="n">
         <v>3294000000.0</v>
       </c>
-      <c r="AG30" s="0" t="n">
+      <c r="AH30" s="0" t="n">
         <v>3135000000.0</v>
       </c>
-      <c r="AH30" s="0" t="n">
+      <c r="AI30" s="0" t="n">
         <v>2834000000.0</v>
       </c>
-      <c r="AI30" s="0" t="n">
+      <c r="AJ30" s="0" t="n">
         <v>1993000000.0</v>
       </c>
-      <c r="AJ30" s="0" t="n">
+      <c r="AK30" s="0" t="n">
         <v>2044000000.0</v>
       </c>
-      <c r="AK30" s="0" t="n">
+      <c r="AL30" s="0" t="n">
         <v>2079000000.0</v>
       </c>
-      <c r="AL30" s="0" t="n">
+      <c r="AM30" s="0" t="n">
         <v>2140000000.0</v>
       </c>
-      <c r="AM30" s="0" t="n">
+      <c r="AN30" s="0" t="n">
         <v>3124000000.0</v>
       </c>
-      <c r="AN30" s="0" t="n">
+      <c r="AO30" s="0" t="n">
         <v>2696000000.0</v>
       </c>
     </row>
@@ -3965,121 +4070,126 @@
           <t>EBITDA Margin</t>
         </is>
       </c>
-      <c r="B31" s="0" t="n">
+      <c r="B31" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="C31" s="0" t="n">
         <v>0.1228</v>
       </c>
-      <c r="C31" s="0" t="n">
+      <c r="D31" s="0" t="n">
         <v>0.1204</v>
       </c>
-      <c r="D31" s="0" t="n">
+      <c r="E31" s="0" t="n">
         <v>0.1303</v>
       </c>
-      <c r="E31" s="0" t="n">
+      <c r="F31" s="0" t="n">
         <v>0.1436</v>
       </c>
-      <c r="F31" s="0" t="n">
+      <c r="G31" s="0" t="n">
         <v>0.158</v>
       </c>
-      <c r="G31" s="0" t="n">
+      <c r="H31" s="0" t="n">
         <v>0.1533</v>
       </c>
-      <c r="H31" s="0" t="n">
+      <c r="I31" s="0" t="n">
         <v>0.1522</v>
       </c>
-      <c r="I31" s="0" t="n">
+      <c r="J31" s="0" t="n">
         <v>0.1586</v>
       </c>
-      <c r="J31" s="0" t="n">
+      <c r="K31" s="0" t="n">
         <v>0.1663</v>
       </c>
-      <c r="K31" s="0" t="n">
+      <c r="L31" s="0" t="n">
         <v>0.1782</v>
       </c>
-      <c r="L31" s="0" t="n">
+      <c r="M31" s="0" t="n">
         <v>0.186</v>
       </c>
-      <c r="M31" s="0" t="n">
+      <c r="N31" s="0" t="n">
         <v>0.1936</v>
       </c>
-      <c r="N31" s="0" t="n">
+      <c r="O31" s="0" t="n">
         <v>0.1928</v>
       </c>
-      <c r="O31" s="0" t="n">
+      <c r="P31" s="0" t="n">
         <v>0.1913</v>
       </c>
-      <c r="P31" s="0" t="n">
+      <c r="Q31" s="0" t="n">
         <v>0.1944</v>
       </c>
-      <c r="Q31" s="0" t="n">
+      <c r="R31" s="0" t="n">
         <v>0.1949</v>
       </c>
-      <c r="R31" s="0" t="n">
+      <c r="S31" s="0" t="n">
         <v>0.2104</v>
       </c>
-      <c r="S31" s="0" t="n">
+      <c r="T31" s="0" t="n">
         <v>0.2152</v>
       </c>
-      <c r="T31" s="0" t="n">
+      <c r="U31" s="0" t="n">
         <v>0.2215</v>
       </c>
-      <c r="U31" s="0" t="n">
+      <c r="V31" s="0" t="n">
         <v>0.2221</v>
       </c>
-      <c r="V31" s="0" t="n">
+      <c r="W31" s="0" t="n">
         <v>0.2195</v>
       </c>
-      <c r="W31" s="0" t="n">
+      <c r="X31" s="0" t="n">
         <v>0.2</v>
       </c>
-      <c r="X31" s="0" t="n">
+      <c r="Y31" s="0" t="n">
         <v>0.183</v>
       </c>
-      <c r="Y31" s="0" t="n">
+      <c r="Z31" s="0" t="n">
         <v>0.1649</v>
       </c>
-      <c r="Z31" s="0" t="n">
+      <c r="AA31" s="0" t="n">
         <v>0.1485</v>
       </c>
-      <c r="AA31" s="0" t="n">
+      <c r="AB31" s="0" t="n">
         <v>0.15</v>
       </c>
-      <c r="AB31" s="0" t="n">
+      <c r="AC31" s="0" t="n">
         <v>0.1421</v>
       </c>
-      <c r="AC31" s="0" t="n">
+      <c r="AD31" s="0" t="n">
         <v>0.1398</v>
       </c>
-      <c r="AD31" s="0" t="n">
+      <c r="AE31" s="0" t="n">
         <v>0.1394</v>
       </c>
-      <c r="AE31" s="0" t="n">
+      <c r="AF31" s="0" t="n">
         <v>0.133</v>
       </c>
-      <c r="AF31" s="0" t="n">
+      <c r="AG31" s="0" t="n">
         <v>0.1348</v>
       </c>
-      <c r="AG31" s="0" t="n">
+      <c r="AH31" s="0" t="n">
         <v>0.137</v>
       </c>
-      <c r="AH31" s="0" t="n">
+      <c r="AI31" s="0" t="n">
         <v>0.1261</v>
       </c>
-      <c r="AI31" s="0" t="n">
+      <c r="AJ31" s="0" t="n">
         <v>0.1182</v>
       </c>
-      <c r="AJ31" s="0" t="n">
+      <c r="AK31" s="0" t="n">
         <v>0.1186</v>
       </c>
-      <c r="AK31" s="0" t="n">
+      <c r="AL31" s="0" t="n">
         <v>0.1095</v>
       </c>
-      <c r="AL31" s="0" t="n">
+      <c r="AM31" s="0" t="n">
         <v>0.1106</v>
       </c>
-      <c r="AM31" s="0" t="n">
+      <c r="AN31" s="0" t="n">
         <v>0.1223</v>
       </c>
-      <c r="AN31" s="0" t="n">
+      <c r="AO31" s="0" t="n">
         <v>0.1167</v>
       </c>
     </row>
@@ -4089,121 +4199,126 @@
           <t>Operating Cash Flow Margin</t>
         </is>
       </c>
-      <c r="B32" s="0" t="n">
+      <c r="B32" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="C32" s="0" t="n">
         <v>0.1227</v>
       </c>
-      <c r="C32" s="0" t="n">
+      <c r="D32" s="0" t="n">
         <v>0.1394</v>
       </c>
-      <c r="D32" s="0" t="n">
+      <c r="E32" s="0" t="n">
         <v>0.1654</v>
       </c>
-      <c r="E32" s="0" t="n">
+      <c r="F32" s="0" t="n">
         <v>0.1448</v>
       </c>
-      <c r="F32" s="0" t="n">
+      <c r="G32" s="0" t="n">
         <v>0.1428</v>
       </c>
-      <c r="G32" s="0" t="n">
+      <c r="H32" s="0" t="n">
         <v>0.1416</v>
       </c>
-      <c r="H32" s="0" t="n">
+      <c r="I32" s="0" t="n">
         <v>0.1243</v>
       </c>
-      <c r="I32" s="0" t="n">
+      <c r="J32" s="0" t="n">
         <v>0.1347</v>
       </c>
-      <c r="J32" s="0" t="n">
+      <c r="K32" s="0" t="n">
         <v>0.1403</v>
       </c>
-      <c r="K32" s="0" t="n">
+      <c r="L32" s="0" t="n">
         <v>0.1441</v>
       </c>
-      <c r="L32" s="0" t="n">
+      <c r="M32" s="0" t="n">
         <v>0.1515</v>
       </c>
-      <c r="M32" s="0" t="n">
+      <c r="N32" s="0" t="n">
         <v>0.1545</v>
       </c>
-      <c r="N32" s="0" t="n">
+      <c r="O32" s="0" t="n">
         <v>0.151</v>
       </c>
-      <c r="O32" s="0" t="n">
+      <c r="P32" s="0" t="n">
         <v>0.1643</v>
       </c>
-      <c r="P32" s="0" t="n">
+      <c r="Q32" s="0" t="n">
         <v>0.1654</v>
       </c>
-      <c r="Q32" s="0" t="n">
+      <c r="R32" s="0" t="n">
         <v>0.1615</v>
       </c>
-      <c r="R32" s="0" t="n">
+      <c r="S32" s="0" t="n">
         <v>0.1921</v>
       </c>
-      <c r="S32" s="0" t="n">
+      <c r="T32" s="0" t="n">
         <v>0.1773</v>
       </c>
-      <c r="T32" s="0" t="n">
+      <c r="U32" s="0" t="n">
         <v>0.1862</v>
       </c>
-      <c r="U32" s="0" t="n">
+      <c r="V32" s="0" t="n">
         <v>0.1813</v>
       </c>
-      <c r="V32" s="0" t="n">
+      <c r="W32" s="0" t="n">
         <v>0.1785</v>
       </c>
-      <c r="W32" s="0" t="n">
+      <c r="X32" s="0" t="n">
         <v>0.1863</v>
       </c>
-      <c r="X32" s="0" t="n">
+      <c r="Y32" s="0" t="n">
         <v>0.1604</v>
       </c>
-      <c r="Y32" s="0" t="n">
+      <c r="Z32" s="0" t="n">
         <v>0.1574</v>
       </c>
-      <c r="Z32" s="0" t="n">
+      <c r="AA32" s="0" t="n">
         <v>0.1326</v>
       </c>
-      <c r="AA32" s="0" t="n">
+      <c r="AB32" s="0" t="n">
         <v>0.1228</v>
       </c>
-      <c r="AB32" s="0" t="n">
+      <c r="AC32" s="0" t="n">
         <v>0.1183</v>
       </c>
-      <c r="AC32" s="0" t="n">
+      <c r="AD32" s="0" t="n">
         <v>0.1086</v>
       </c>
-      <c r="AD32" s="0" t="n">
+      <c r="AE32" s="0" t="n">
         <v>0.1097</v>
       </c>
-      <c r="AE32" s="0" t="n">
+      <c r="AF32" s="0" t="n">
         <v>0.102</v>
       </c>
-      <c r="AF32" s="0" t="n">
+      <c r="AG32" s="0" t="n">
         <v>0.1227</v>
       </c>
-      <c r="AG32" s="0" t="n">
+      <c r="AH32" s="0" t="n">
         <v>0.1055</v>
       </c>
-      <c r="AH32" s="0" t="n">
+      <c r="AI32" s="0" t="n">
         <v>0.1056</v>
       </c>
-      <c r="AI32" s="0" t="n">
+      <c r="AJ32" s="0" t="n">
         <v>0.0798</v>
       </c>
-      <c r="AJ32" s="0" t="n">
+      <c r="AK32" s="0" t="n">
         <v>0.0664</v>
       </c>
-      <c r="AK32" s="0" t="n">
+      <c r="AL32" s="0" t="n">
         <v>0.0745</v>
       </c>
-      <c r="AL32" s="0" t="n">
+      <c r="AM32" s="0" t="n">
         <v>0.0594</v>
       </c>
-      <c r="AM32" s="0" t="n">
+      <c r="AN32" s="0" t="n">
         <v>0.0757</v>
       </c>
-      <c r="AN32" s="0" t="n">
+      <c r="AO32" s="0" t="n">
         <v>0.0703</v>
       </c>
     </row>
